--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64578243590537</v>
+        <v>21.6457824359053</v>
       </c>
       <c r="C2">
-        <v>16.1219188832238</v>
+        <v>16.12191888322366</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.95545521818929</v>
+        <v>5.955455218189262</v>
       </c>
       <c r="F2">
-        <v>29.17082928983886</v>
+        <v>29.17082928983883</v>
       </c>
       <c r="G2">
-        <v>20.7548905149835</v>
+        <v>20.75489051498362</v>
       </c>
       <c r="H2">
-        <v>16.80425275251782</v>
+        <v>16.804252752518</v>
       </c>
       <c r="I2">
-        <v>8.591377738369717</v>
+        <v>8.591377738369914</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.154208293758233</v>
+        <v>9.154208293758259</v>
       </c>
       <c r="L2">
-        <v>15.6695758552435</v>
+        <v>15.66957585524344</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16019606140486</v>
+        <v>20.16019606140487</v>
       </c>
       <c r="C3">
-        <v>15.02071725361326</v>
+        <v>15.02071725361317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.787026870990393</v>
+        <v>5.787026870990347</v>
       </c>
       <c r="F3">
         <v>27.39819638233928</v>
       </c>
       <c r="G3">
-        <v>20.03767265603665</v>
+        <v>20.03767265603668</v>
       </c>
       <c r="H3">
-        <v>16.59287424689316</v>
+        <v>16.59287424689314</v>
       </c>
       <c r="I3">
-        <v>8.820432859738652</v>
+        <v>8.82043285973865</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.542224883244076</v>
+        <v>8.54222488324406</v>
       </c>
       <c r="L3">
-        <v>14.66313102386344</v>
+        <v>14.66313102386342</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.19875253641915</v>
+        <v>19.19875253641918</v>
       </c>
       <c r="C4">
-        <v>14.31014768564024</v>
+        <v>14.31014768564019</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.684115363361926</v>
+        <v>5.684115363361932</v>
       </c>
       <c r="F4">
         <v>26.28123968547326</v>
       </c>
       <c r="G4">
-        <v>19.61734948522923</v>
+        <v>19.6173494852292</v>
       </c>
       <c r="H4">
-        <v>16.48844395758222</v>
+        <v>16.48844395758216</v>
       </c>
       <c r="I4">
-        <v>8.962808846068153</v>
+        <v>8.962808846068056</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.193210842591473</v>
+        <v>8.193210842591501</v>
       </c>
       <c r="L4">
         <v>14.01360847000062</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79441558137545</v>
+        <v>18.79441558137536</v>
       </c>
       <c r="C5">
-        <v>14.01181177744838</v>
+        <v>14.01181177744852</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.642351591081639</v>
+        <v>5.642351591081594</v>
       </c>
       <c r="F5">
         <v>25.81927376415607</v>
       </c>
       <c r="G5">
-        <v>19.45113946368563</v>
+        <v>19.45113946368569</v>
       </c>
       <c r="H5">
-        <v>16.45194776873889</v>
+        <v>16.45194776873901</v>
       </c>
       <c r="I5">
-        <v>9.021324903613518</v>
+        <v>9.021324903613584</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.061051472101893</v>
+        <v>8.061051472101873</v>
       </c>
       <c r="L5">
-        <v>13.74093915024877</v>
+        <v>13.74093915024875</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>18.726514162751</v>
       </c>
       <c r="C6">
-        <v>13.96174029109035</v>
+        <v>13.96174029109022</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.635428643638156</v>
+        <v>5.635428643638108</v>
       </c>
       <c r="F6">
-        <v>25.74216759092336</v>
+        <v>25.74216759092341</v>
       </c>
       <c r="G6">
-        <v>19.42384776176461</v>
+        <v>19.42384776176468</v>
       </c>
       <c r="H6">
-        <v>16.44624411857168</v>
+        <v>16.44624411857174</v>
       </c>
       <c r="I6">
         <v>9.031073137744931</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.038971292508879</v>
+        <v>8.038971292508867</v>
       </c>
       <c r="L6">
-        <v>13.69517937315944</v>
+        <v>13.69517937315943</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.19335047310497</v>
+        <v>19.193350473105</v>
       </c>
       <c r="C7">
-        <v>14.30615989006848</v>
+        <v>14.30615989006865</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.683551356332153</v>
+        <v>5.683551356332234</v>
       </c>
       <c r="F7">
-        <v>26.27503638238443</v>
+        <v>26.2750363823844</v>
       </c>
       <c r="G7">
-        <v>19.6150873310035</v>
+        <v>19.61508733100343</v>
       </c>
       <c r="H7">
-        <v>16.487927647792</v>
+        <v>16.48792764779192</v>
       </c>
       <c r="I7">
-        <v>8.963595926120071</v>
+        <v>8.963595926120139</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.191437652314518</v>
+        <v>8.191437652314525</v>
       </c>
       <c r="L7">
         <v>14.00996353200416</v>
@@ -643,19 +643,19 @@
         <v>21.14369035989615</v>
       </c>
       <c r="C8">
-        <v>15.74929635271331</v>
+        <v>15.74929635271329</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.897303602265794</v>
+        <v>5.897303602265714</v>
       </c>
       <c r="F8">
-        <v>28.56574643217465</v>
+        <v>28.56574643217463</v>
       </c>
       <c r="G8">
-        <v>20.50345263685099</v>
+        <v>20.50345263685101</v>
       </c>
       <c r="H8">
         <v>16.72592054477365</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.947270812751212</v>
+        <v>8.947270812751258</v>
       </c>
       <c r="L8">
-        <v>15.32907061648026</v>
+        <v>15.32907061648028</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58437308814609</v>
+        <v>24.58437308814613</v>
       </c>
       <c r="C9">
-        <v>18.31199912015101</v>
+        <v>18.31199912015107</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.318595538932306</v>
+        <v>6.318595538932302</v>
       </c>
       <c r="F9">
-        <v>32.82013830361429</v>
+        <v>32.82013830361432</v>
       </c>
       <c r="G9">
-        <v>22.40343882651167</v>
+        <v>22.4034388265117</v>
       </c>
       <c r="H9">
-        <v>17.40724390998173</v>
+        <v>17.40724390998176</v>
       </c>
       <c r="I9">
-        <v>8.105175110842556</v>
+        <v>8.105175110842557</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.36700901597814</v>
+        <v>10.36700901597813</v>
       </c>
       <c r="L9">
-        <v>17.66840767519944</v>
+        <v>17.66840767519947</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88896407705609</v>
+        <v>26.8889640770561</v>
       </c>
       <c r="C10">
-        <v>20.04105950707758</v>
+        <v>20.04105950707756</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.627220759499294</v>
+        <v>6.627220759499271</v>
       </c>
       <c r="F10">
-        <v>36.0148347628323</v>
+        <v>36.01483476283234</v>
       </c>
       <c r="G10">
-        <v>23.89546570819441</v>
+        <v>23.89546570819439</v>
       </c>
       <c r="H10">
-        <v>18.05611270909172</v>
+        <v>18.05611270909168</v>
       </c>
       <c r="I10">
-        <v>7.692300476007974</v>
+        <v>7.69230047600801</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>11.31953801063129</v>
       </c>
       <c r="L10">
-        <v>19.24159745089999</v>
+        <v>19.24159745089998</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>27.89153882647405</v>
       </c>
       <c r="C11">
-        <v>20.79660068362944</v>
+        <v>20.79660068362947</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.767067689003059</v>
+        <v>6.767067689003134</v>
       </c>
       <c r="F11">
-        <v>37.42474741594609</v>
+        <v>37.42474741594604</v>
       </c>
       <c r="G11">
-        <v>24.59571499689862</v>
+        <v>24.59571499689859</v>
       </c>
       <c r="H11">
-        <v>18.38706358239549</v>
+        <v>18.38706358239545</v>
       </c>
       <c r="I11">
-        <v>7.503843964497142</v>
+        <v>7.503843964497173</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.73413530668391</v>
+        <v>11.73413530668387</v>
       </c>
       <c r="L11">
-        <v>19.92715927017192</v>
+        <v>19.92715927017189</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.2648448823748</v>
+        <v>28.26484488237481</v>
       </c>
       <c r="C12">
-        <v>21.07846395083904</v>
+        <v>21.07846395083902</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.819922915820909</v>
+        <v>6.819922915820928</v>
       </c>
       <c r="F12">
         <v>37.95233536073004</v>
       </c>
       <c r="G12">
-        <v>24.8640866045811</v>
+        <v>24.86408660458109</v>
       </c>
       <c r="H12">
-        <v>18.51782069317589</v>
+        <v>18.51782069317586</v>
       </c>
       <c r="I12">
-        <v>7.432289767295308</v>
+        <v>7.432289767295338</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.88852792067661</v>
+        <v>11.8885279206766</v>
       </c>
       <c r="L12">
         <v>20.18257993947378</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18472498368524</v>
+        <v>28.18472498368519</v>
       </c>
       <c r="C13">
-        <v>21.01794467116974</v>
+        <v>21.01794467116971</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.808544419189727</v>
+        <v>6.808544419189719</v>
       </c>
       <c r="F13">
-        <v>37.83898592891307</v>
+        <v>37.83898592891303</v>
       </c>
       <c r="G13">
-        <v>24.80614318482607</v>
+        <v>24.8061431848261</v>
       </c>
       <c r="H13">
-        <v>18.48941348781943</v>
+        <v>18.48941348781948</v>
       </c>
       <c r="I13">
-        <v>7.447710328344461</v>
+        <v>7.447710328344562</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.85539118461069</v>
+        <v>11.85539118461065</v>
       </c>
       <c r="L13">
-        <v>20.12775429495556</v>
+        <v>20.12775429495551</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.92237669730532</v>
+        <v>27.92237669730534</v>
       </c>
       <c r="C14">
-        <v>20.81987346386778</v>
+        <v>20.81987346386791</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.771418268256589</v>
+        <v>6.771418268256643</v>
       </c>
       <c r="F14">
-        <v>37.46827725303438</v>
+        <v>37.46827725303435</v>
       </c>
       <c r="G14">
-        <v>24.61772907746272</v>
+        <v>24.61772907746271</v>
       </c>
       <c r="H14">
-        <v>18.39771047968417</v>
+        <v>18.39771047968416</v>
       </c>
       <c r="I14">
-        <v>7.497961550448072</v>
+        <v>7.497961550448073</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.74688899916337</v>
+        <v>11.74688899916336</v>
       </c>
       <c r="L14">
         <v>19.94825591886013</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.76086168108015</v>
+        <v>27.76086168108013</v>
       </c>
       <c r="C15">
-        <v>20.69800332812374</v>
+        <v>20.69800332812368</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.74866360497778</v>
+        <v>6.74866360497777</v>
       </c>
       <c r="F15">
-        <v>37.2403938061357</v>
+        <v>37.24039380613564</v>
       </c>
       <c r="G15">
-        <v>24.50274126530536</v>
+        <v>24.50274126530533</v>
       </c>
       <c r="H15">
-        <v>18.34225598695068</v>
+        <v>18.34225598695066</v>
       </c>
       <c r="I15">
-        <v>7.528714116020398</v>
+        <v>7.528714116020393</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.68009151290165</v>
+        <v>11.68009151290163</v>
       </c>
       <c r="L15">
-        <v>19.83776723458371</v>
+        <v>19.83776723458369</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82254174728321</v>
+        <v>26.82254174728318</v>
       </c>
       <c r="C16">
-        <v>19.99107689933274</v>
+        <v>19.99107689933275</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.61806829540473</v>
+        <v>6.618068295404702</v>
       </c>
       <c r="F16">
-        <v>35.92179438769723</v>
+        <v>35.92179438769717</v>
       </c>
       <c r="G16">
-        <v>23.85014369583311</v>
+        <v>23.85014369583307</v>
       </c>
       <c r="H16">
-        <v>18.0352287434195</v>
+        <v>18.03522874341948</v>
       </c>
       <c r="I16">
-        <v>7.704595505373664</v>
+        <v>7.704595505373592</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.29207357105613</v>
+        <v>11.29207357105614</v>
       </c>
       <c r="L16">
-        <v>19.19620043957219</v>
+        <v>19.19620043957221</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.23534557406796</v>
+        <v>26.23534557406797</v>
       </c>
       <c r="C17">
-        <v>19.54960239913285</v>
+        <v>19.54960239913287</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.537793559263292</v>
+        <v>6.537793559263323</v>
       </c>
       <c r="F17">
         <v>35.10133165532301</v>
       </c>
       <c r="G17">
-        <v>23.45536662740136</v>
+        <v>23.45536662740139</v>
       </c>
       <c r="H17">
-        <v>17.85624455271211</v>
+        <v>17.85624455271212</v>
       </c>
       <c r="I17">
-        <v>7.812262280470315</v>
+        <v>7.812262280470317</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.04930164912833</v>
+        <v>11.04930164912829</v>
       </c>
       <c r="L17">
-        <v>18.79500706105443</v>
+        <v>18.7950070610544</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89327982239752</v>
+        <v>25.89327982239749</v>
       </c>
       <c r="C18">
-        <v>19.29274410245876</v>
+        <v>19.29274410245866</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.491571038146626</v>
+        <v>6.491571038146617</v>
       </c>
       <c r="F18">
-        <v>34.62510134944555</v>
+        <v>34.6251013494455</v>
       </c>
       <c r="G18">
-        <v>23.23031708502453</v>
+        <v>23.23031708502455</v>
       </c>
       <c r="H18">
-        <v>17.7566478114301</v>
+        <v>17.75664781143012</v>
       </c>
       <c r="I18">
-        <v>7.874135664114792</v>
+        <v>7.874135664114726</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.90789873995328</v>
+        <v>10.90789873995324</v>
       </c>
       <c r="L18">
-        <v>18.561409522069</v>
+        <v>18.56140952206895</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77671236568598</v>
+        <v>25.77671236568596</v>
       </c>
       <c r="C19">
-        <v>19.20526621792792</v>
+        <v>19.20526621792797</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.475912996259638</v>
+        <v>6.475912996259585</v>
       </c>
       <c r="F19">
-        <v>34.46310889347576</v>
+        <v>34.46310889347581</v>
       </c>
       <c r="G19">
-        <v>23.15446303289293</v>
+        <v>23.15446303289295</v>
       </c>
       <c r="H19">
-        <v>17.72349276833367</v>
+        <v>17.7234927683337</v>
       </c>
       <c r="I19">
-        <v>7.89507857167817</v>
+        <v>7.895078571678205</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.85971624364587</v>
+        <v>10.85971624364596</v>
       </c>
       <c r="L19">
-        <v>18.48182537433561</v>
+        <v>18.48182537433562</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2982996898358</v>
+        <v>26.29829968983574</v>
       </c>
       <c r="C20">
-        <v>19.5969002670791</v>
+        <v>19.59690026707903</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.546344367050925</v>
+        <v>6.546344367050899</v>
       </c>
       <c r="F20">
-        <v>35.18911695081744</v>
+        <v>35.18911695081735</v>
       </c>
       <c r="G20">
-        <v>23.49718209702886</v>
+        <v>23.49718209702883</v>
       </c>
       <c r="H20">
-        <v>17.87494891932885</v>
+        <v>17.87494891932889</v>
       </c>
       <c r="I20">
-        <v>7.800807212480911</v>
+        <v>7.800807212481003</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.07532742046832</v>
+        <v>11.07532742046835</v>
       </c>
       <c r="L20">
-        <v>18.83800793242314</v>
+        <v>18.8380079324231</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99960499122683</v>
+        <v>27.99960499122682</v>
       </c>
       <c r="C21">
-        <v>20.87816510003815</v>
+        <v>20.87816510003816</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.782326031369659</v>
+        <v>6.78232603136968</v>
       </c>
       <c r="F21">
-        <v>37.57733239443753</v>
+        <v>37.57733239443745</v>
       </c>
       <c r="G21">
-        <v>24.67298279717715</v>
+        <v>24.67298279717712</v>
       </c>
       <c r="H21">
-        <v>18.42449608378283</v>
+        <v>18.42449608378282</v>
       </c>
       <c r="I21">
-        <v>7.483207519035561</v>
+        <v>7.483207519035526</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.77882873875962</v>
+        <v>11.77882873875963</v>
       </c>
       <c r="L21">
         <v>20.00109135644529</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.07463873012744</v>
+        <v>29.07463873012758</v>
       </c>
       <c r="C22">
-        <v>21.69092960209263</v>
+        <v>21.69092960209275</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.935954556563667</v>
+        <v>6.935954556563741</v>
       </c>
       <c r="F22">
-        <v>39.10152536144585</v>
+        <v>39.10152536144604</v>
       </c>
       <c r="G22">
-        <v>25.46019784617916</v>
+        <v>25.46019784617929</v>
       </c>
       <c r="H22">
-        <v>18.81546716260583</v>
+        <v>18.81546716260586</v>
       </c>
       <c r="I22">
-        <v>7.274480533746932</v>
+        <v>7.274480533746752</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.22346150755043</v>
+        <v>12.22346150755041</v>
       </c>
       <c r="L22">
-        <v>20.73690944322116</v>
+        <v>20.73690944322124</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.50416110586635</v>
+        <v>28.50416110586634</v>
       </c>
       <c r="C23">
-        <v>21.25931579832272</v>
+        <v>21.2593157983227</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.854020815662009</v>
+        <v>6.854020815661988</v>
       </c>
       <c r="F23">
-        <v>38.29128543622887</v>
+        <v>38.29128543622883</v>
       </c>
       <c r="G23">
-        <v>25.03827786830718</v>
+        <v>25.03827786830714</v>
       </c>
       <c r="H23">
-        <v>18.60379012377173</v>
+        <v>18.60379012377172</v>
       </c>
       <c r="I23">
-        <v>7.386022310708815</v>
+        <v>7.386022310708809</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.98750813231724</v>
+        <v>11.98750813231726</v>
       </c>
       <c r="L23">
-        <v>20.34636372042992</v>
+        <v>20.34636372042993</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>26.26985210238594</v>
       </c>
       <c r="C24">
-        <v>19.57552641309289</v>
+        <v>19.57552641309291</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.542478767746015</v>
+        <v>6.542478767745957</v>
       </c>
       <c r="F24">
-        <v>35.14944336399344</v>
+        <v>35.14944336399339</v>
       </c>
       <c r="G24">
-        <v>23.47827137180987</v>
+        <v>23.4782713718098</v>
       </c>
       <c r="H24">
-        <v>17.86648240672383</v>
+        <v>17.86648240672374</v>
       </c>
       <c r="I24">
-        <v>7.805986121391088</v>
+        <v>7.805986121390954</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.06356687585985</v>
+        <v>11.0635668758599</v>
       </c>
       <c r="L24">
-        <v>18.81857642533902</v>
+        <v>18.81857642533905</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.69361963862348</v>
+        <v>23.69361963862342</v>
       </c>
       <c r="C25">
         <v>17.64644574626625</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.204641790388756</v>
+        <v>6.204641790388707</v>
       </c>
       <c r="F25">
-        <v>31.69579411206027</v>
+        <v>31.69579411206026</v>
       </c>
       <c r="G25">
-        <v>21.87264025207261</v>
+        <v>21.87264025207262</v>
       </c>
       <c r="H25">
-        <v>17.19810521949531</v>
+        <v>17.19810521949535</v>
       </c>
       <c r="I25">
-        <v>8.257265137023886</v>
+        <v>8.257265137023854</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.999123736760522</v>
+        <v>9.999123736760533</v>
       </c>
       <c r="L25">
-        <v>17.0615537484392</v>
+        <v>17.06155374843918</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.6457824359053</v>
+        <v>21.64578243590537</v>
       </c>
       <c r="C2">
-        <v>16.12191888322366</v>
+        <v>16.1219188832238</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.955455218189262</v>
+        <v>5.95545521818929</v>
       </c>
       <c r="F2">
-        <v>29.17082928983883</v>
+        <v>29.17082928983886</v>
       </c>
       <c r="G2">
-        <v>20.75489051498362</v>
+        <v>20.7548905149835</v>
       </c>
       <c r="H2">
-        <v>16.804252752518</v>
+        <v>16.80425275251782</v>
       </c>
       <c r="I2">
-        <v>8.591377738369914</v>
+        <v>8.591377738369717</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.154208293758259</v>
+        <v>9.154208293758233</v>
       </c>
       <c r="L2">
-        <v>15.66957585524344</v>
+        <v>15.6695758552435</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16019606140487</v>
+        <v>20.16019606140486</v>
       </c>
       <c r="C3">
-        <v>15.02071725361317</v>
+        <v>15.02071725361326</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.787026870990347</v>
+        <v>5.787026870990393</v>
       </c>
       <c r="F3">
         <v>27.39819638233928</v>
       </c>
       <c r="G3">
-        <v>20.03767265603668</v>
+        <v>20.03767265603665</v>
       </c>
       <c r="H3">
-        <v>16.59287424689314</v>
+        <v>16.59287424689316</v>
       </c>
       <c r="I3">
-        <v>8.82043285973865</v>
+        <v>8.820432859738652</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.54222488324406</v>
+        <v>8.542224883244076</v>
       </c>
       <c r="L3">
-        <v>14.66313102386342</v>
+        <v>14.66313102386344</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.19875253641918</v>
+        <v>19.19875253641915</v>
       </c>
       <c r="C4">
-        <v>14.31014768564019</v>
+        <v>14.31014768564024</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.684115363361932</v>
+        <v>5.684115363361926</v>
       </c>
       <c r="F4">
         <v>26.28123968547326</v>
       </c>
       <c r="G4">
-        <v>19.6173494852292</v>
+        <v>19.61734948522923</v>
       </c>
       <c r="H4">
-        <v>16.48844395758216</v>
+        <v>16.48844395758222</v>
       </c>
       <c r="I4">
-        <v>8.962808846068056</v>
+        <v>8.962808846068153</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.193210842591501</v>
+        <v>8.193210842591473</v>
       </c>
       <c r="L4">
         <v>14.01360847000062</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79441558137536</v>
+        <v>18.79441558137545</v>
       </c>
       <c r="C5">
-        <v>14.01181177744852</v>
+        <v>14.01181177744838</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.642351591081594</v>
+        <v>5.642351591081639</v>
       </c>
       <c r="F5">
         <v>25.81927376415607</v>
       </c>
       <c r="G5">
-        <v>19.45113946368569</v>
+        <v>19.45113946368563</v>
       </c>
       <c r="H5">
-        <v>16.45194776873901</v>
+        <v>16.45194776873889</v>
       </c>
       <c r="I5">
-        <v>9.021324903613584</v>
+        <v>9.021324903613518</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.061051472101873</v>
+        <v>8.061051472101893</v>
       </c>
       <c r="L5">
-        <v>13.74093915024875</v>
+        <v>13.74093915024877</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,22 +567,22 @@
         <v>18.726514162751</v>
       </c>
       <c r="C6">
-        <v>13.96174029109022</v>
+        <v>13.96174029109035</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.635428643638108</v>
+        <v>5.635428643638156</v>
       </c>
       <c r="F6">
-        <v>25.74216759092341</v>
+        <v>25.74216759092336</v>
       </c>
       <c r="G6">
-        <v>19.42384776176468</v>
+        <v>19.42384776176461</v>
       </c>
       <c r="H6">
-        <v>16.44624411857174</v>
+        <v>16.44624411857168</v>
       </c>
       <c r="I6">
         <v>9.031073137744931</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.038971292508867</v>
+        <v>8.038971292508879</v>
       </c>
       <c r="L6">
-        <v>13.69517937315943</v>
+        <v>13.69517937315944</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.193350473105</v>
+        <v>19.19335047310497</v>
       </c>
       <c r="C7">
-        <v>14.30615989006865</v>
+        <v>14.30615989006848</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.683551356332234</v>
+        <v>5.683551356332153</v>
       </c>
       <c r="F7">
-        <v>26.2750363823844</v>
+        <v>26.27503638238443</v>
       </c>
       <c r="G7">
-        <v>19.61508733100343</v>
+        <v>19.6150873310035</v>
       </c>
       <c r="H7">
-        <v>16.48792764779192</v>
+        <v>16.487927647792</v>
       </c>
       <c r="I7">
-        <v>8.963595926120139</v>
+        <v>8.963595926120071</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.191437652314525</v>
+        <v>8.191437652314518</v>
       </c>
       <c r="L7">
         <v>14.00996353200416</v>
@@ -643,19 +643,19 @@
         <v>21.14369035989615</v>
       </c>
       <c r="C8">
-        <v>15.74929635271329</v>
+        <v>15.74929635271331</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.897303602265714</v>
+        <v>5.897303602265794</v>
       </c>
       <c r="F8">
-        <v>28.56574643217463</v>
+        <v>28.56574643217465</v>
       </c>
       <c r="G8">
-        <v>20.50345263685101</v>
+        <v>20.50345263685099</v>
       </c>
       <c r="H8">
         <v>16.72592054477365</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.947270812751258</v>
+        <v>8.947270812751212</v>
       </c>
       <c r="L8">
-        <v>15.32907061648028</v>
+        <v>15.32907061648026</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58437308814613</v>
+        <v>24.58437308814609</v>
       </c>
       <c r="C9">
-        <v>18.31199912015107</v>
+        <v>18.31199912015101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.318595538932302</v>
+        <v>6.318595538932306</v>
       </c>
       <c r="F9">
-        <v>32.82013830361432</v>
+        <v>32.82013830361429</v>
       </c>
       <c r="G9">
-        <v>22.4034388265117</v>
+        <v>22.40343882651167</v>
       </c>
       <c r="H9">
-        <v>17.40724390998176</v>
+        <v>17.40724390998173</v>
       </c>
       <c r="I9">
-        <v>8.105175110842557</v>
+        <v>8.105175110842556</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.36700901597813</v>
+        <v>10.36700901597814</v>
       </c>
       <c r="L9">
-        <v>17.66840767519947</v>
+        <v>17.66840767519944</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.8889640770561</v>
+        <v>26.88896407705609</v>
       </c>
       <c r="C10">
-        <v>20.04105950707756</v>
+        <v>20.04105950707758</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.627220759499271</v>
+        <v>6.627220759499294</v>
       </c>
       <c r="F10">
-        <v>36.01483476283234</v>
+        <v>36.0148347628323</v>
       </c>
       <c r="G10">
-        <v>23.89546570819439</v>
+        <v>23.89546570819441</v>
       </c>
       <c r="H10">
-        <v>18.05611270909168</v>
+        <v>18.05611270909172</v>
       </c>
       <c r="I10">
-        <v>7.69230047600801</v>
+        <v>7.692300476007974</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>11.31953801063129</v>
       </c>
       <c r="L10">
-        <v>19.24159745089998</v>
+        <v>19.24159745089999</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>27.89153882647405</v>
       </c>
       <c r="C11">
-        <v>20.79660068362947</v>
+        <v>20.79660068362944</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.767067689003134</v>
+        <v>6.767067689003059</v>
       </c>
       <c r="F11">
-        <v>37.42474741594604</v>
+        <v>37.42474741594609</v>
       </c>
       <c r="G11">
-        <v>24.59571499689859</v>
+        <v>24.59571499689862</v>
       </c>
       <c r="H11">
-        <v>18.38706358239545</v>
+        <v>18.38706358239549</v>
       </c>
       <c r="I11">
-        <v>7.503843964497173</v>
+        <v>7.503843964497142</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.73413530668387</v>
+        <v>11.73413530668391</v>
       </c>
       <c r="L11">
-        <v>19.92715927017189</v>
+        <v>19.92715927017192</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.26484488237481</v>
+        <v>28.2648448823748</v>
       </c>
       <c r="C12">
-        <v>21.07846395083902</v>
+        <v>21.07846395083904</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.819922915820928</v>
+        <v>6.819922915820909</v>
       </c>
       <c r="F12">
         <v>37.95233536073004</v>
       </c>
       <c r="G12">
-        <v>24.86408660458109</v>
+        <v>24.8640866045811</v>
       </c>
       <c r="H12">
-        <v>18.51782069317586</v>
+        <v>18.51782069317589</v>
       </c>
       <c r="I12">
-        <v>7.432289767295338</v>
+        <v>7.432289767295308</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.8885279206766</v>
+        <v>11.88852792067661</v>
       </c>
       <c r="L12">
         <v>20.18257993947378</v>
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18472498368519</v>
+        <v>28.18472498368524</v>
       </c>
       <c r="C13">
-        <v>21.01794467116971</v>
+        <v>21.01794467116974</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.808544419189719</v>
+        <v>6.808544419189727</v>
       </c>
       <c r="F13">
-        <v>37.83898592891303</v>
+        <v>37.83898592891307</v>
       </c>
       <c r="G13">
-        <v>24.8061431848261</v>
+        <v>24.80614318482607</v>
       </c>
       <c r="H13">
-        <v>18.48941348781948</v>
+        <v>18.48941348781943</v>
       </c>
       <c r="I13">
-        <v>7.447710328344562</v>
+        <v>7.447710328344461</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.85539118461065</v>
+        <v>11.85539118461069</v>
       </c>
       <c r="L13">
-        <v>20.12775429495551</v>
+        <v>20.12775429495556</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.92237669730534</v>
+        <v>27.92237669730532</v>
       </c>
       <c r="C14">
-        <v>20.81987346386791</v>
+        <v>20.81987346386778</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.771418268256643</v>
+        <v>6.771418268256589</v>
       </c>
       <c r="F14">
-        <v>37.46827725303435</v>
+        <v>37.46827725303438</v>
       </c>
       <c r="G14">
-        <v>24.61772907746271</v>
+        <v>24.61772907746272</v>
       </c>
       <c r="H14">
-        <v>18.39771047968416</v>
+        <v>18.39771047968417</v>
       </c>
       <c r="I14">
-        <v>7.497961550448073</v>
+        <v>7.497961550448072</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.74688899916336</v>
+        <v>11.74688899916337</v>
       </c>
       <c r="L14">
         <v>19.94825591886013</v>
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.76086168108013</v>
+        <v>27.76086168108015</v>
       </c>
       <c r="C15">
-        <v>20.69800332812368</v>
+        <v>20.69800332812374</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.74866360497777</v>
+        <v>6.74866360497778</v>
       </c>
       <c r="F15">
-        <v>37.24039380613564</v>
+        <v>37.2403938061357</v>
       </c>
       <c r="G15">
-        <v>24.50274126530533</v>
+        <v>24.50274126530536</v>
       </c>
       <c r="H15">
-        <v>18.34225598695066</v>
+        <v>18.34225598695068</v>
       </c>
       <c r="I15">
-        <v>7.528714116020393</v>
+        <v>7.528714116020398</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.68009151290163</v>
+        <v>11.68009151290165</v>
       </c>
       <c r="L15">
-        <v>19.83776723458369</v>
+        <v>19.83776723458371</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82254174728318</v>
+        <v>26.82254174728321</v>
       </c>
       <c r="C16">
-        <v>19.99107689933275</v>
+        <v>19.99107689933274</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.618068295404702</v>
+        <v>6.61806829540473</v>
       </c>
       <c r="F16">
-        <v>35.92179438769717</v>
+        <v>35.92179438769723</v>
       </c>
       <c r="G16">
-        <v>23.85014369583307</v>
+        <v>23.85014369583311</v>
       </c>
       <c r="H16">
-        <v>18.03522874341948</v>
+        <v>18.0352287434195</v>
       </c>
       <c r="I16">
-        <v>7.704595505373592</v>
+        <v>7.704595505373664</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.29207357105614</v>
+        <v>11.29207357105613</v>
       </c>
       <c r="L16">
-        <v>19.19620043957221</v>
+        <v>19.19620043957219</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.23534557406797</v>
+        <v>26.23534557406796</v>
       </c>
       <c r="C17">
-        <v>19.54960239913287</v>
+        <v>19.54960239913285</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.537793559263323</v>
+        <v>6.537793559263292</v>
       </c>
       <c r="F17">
         <v>35.10133165532301</v>
       </c>
       <c r="G17">
-        <v>23.45536662740139</v>
+        <v>23.45536662740136</v>
       </c>
       <c r="H17">
-        <v>17.85624455271212</v>
+        <v>17.85624455271211</v>
       </c>
       <c r="I17">
-        <v>7.812262280470317</v>
+        <v>7.812262280470315</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.04930164912829</v>
+        <v>11.04930164912833</v>
       </c>
       <c r="L17">
-        <v>18.7950070610544</v>
+        <v>18.79500706105443</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89327982239749</v>
+        <v>25.89327982239752</v>
       </c>
       <c r="C18">
-        <v>19.29274410245866</v>
+        <v>19.29274410245876</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.491571038146617</v>
+        <v>6.491571038146626</v>
       </c>
       <c r="F18">
-        <v>34.6251013494455</v>
+        <v>34.62510134944555</v>
       </c>
       <c r="G18">
-        <v>23.23031708502455</v>
+        <v>23.23031708502453</v>
       </c>
       <c r="H18">
-        <v>17.75664781143012</v>
+        <v>17.7566478114301</v>
       </c>
       <c r="I18">
-        <v>7.874135664114726</v>
+        <v>7.874135664114792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.90789873995324</v>
+        <v>10.90789873995328</v>
       </c>
       <c r="L18">
-        <v>18.56140952206895</v>
+        <v>18.561409522069</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77671236568596</v>
+        <v>25.77671236568598</v>
       </c>
       <c r="C19">
-        <v>19.20526621792797</v>
+        <v>19.20526621792792</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.475912996259585</v>
+        <v>6.475912996259638</v>
       </c>
       <c r="F19">
-        <v>34.46310889347581</v>
+        <v>34.46310889347576</v>
       </c>
       <c r="G19">
-        <v>23.15446303289295</v>
+        <v>23.15446303289293</v>
       </c>
       <c r="H19">
-        <v>17.7234927683337</v>
+        <v>17.72349276833367</v>
       </c>
       <c r="I19">
-        <v>7.895078571678205</v>
+        <v>7.89507857167817</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.85971624364596</v>
+        <v>10.85971624364587</v>
       </c>
       <c r="L19">
-        <v>18.48182537433562</v>
+        <v>18.48182537433561</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.29829968983574</v>
+        <v>26.2982996898358</v>
       </c>
       <c r="C20">
-        <v>19.59690026707903</v>
+        <v>19.5969002670791</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.546344367050899</v>
+        <v>6.546344367050925</v>
       </c>
       <c r="F20">
-        <v>35.18911695081735</v>
+        <v>35.18911695081744</v>
       </c>
       <c r="G20">
-        <v>23.49718209702883</v>
+        <v>23.49718209702886</v>
       </c>
       <c r="H20">
-        <v>17.87494891932889</v>
+        <v>17.87494891932885</v>
       </c>
       <c r="I20">
-        <v>7.800807212481003</v>
+        <v>7.800807212480911</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.07532742046835</v>
+        <v>11.07532742046832</v>
       </c>
       <c r="L20">
-        <v>18.8380079324231</v>
+        <v>18.83800793242314</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99960499122682</v>
+        <v>27.99960499122683</v>
       </c>
       <c r="C21">
-        <v>20.87816510003816</v>
+        <v>20.87816510003815</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.78232603136968</v>
+        <v>6.782326031369659</v>
       </c>
       <c r="F21">
-        <v>37.57733239443745</v>
+        <v>37.57733239443753</v>
       </c>
       <c r="G21">
-        <v>24.67298279717712</v>
+        <v>24.67298279717715</v>
       </c>
       <c r="H21">
-        <v>18.42449608378282</v>
+        <v>18.42449608378283</v>
       </c>
       <c r="I21">
-        <v>7.483207519035526</v>
+        <v>7.483207519035561</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.77882873875963</v>
+        <v>11.77882873875962</v>
       </c>
       <c r="L21">
         <v>20.00109135644529</v>
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.07463873012758</v>
+        <v>29.07463873012744</v>
       </c>
       <c r="C22">
-        <v>21.69092960209275</v>
+        <v>21.69092960209263</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.935954556563741</v>
+        <v>6.935954556563667</v>
       </c>
       <c r="F22">
-        <v>39.10152536144604</v>
+        <v>39.10152536144585</v>
       </c>
       <c r="G22">
-        <v>25.46019784617929</v>
+        <v>25.46019784617916</v>
       </c>
       <c r="H22">
-        <v>18.81546716260586</v>
+        <v>18.81546716260583</v>
       </c>
       <c r="I22">
-        <v>7.274480533746752</v>
+        <v>7.274480533746932</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.22346150755041</v>
+        <v>12.22346150755043</v>
       </c>
       <c r="L22">
-        <v>20.73690944322124</v>
+        <v>20.73690944322116</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.50416110586634</v>
+        <v>28.50416110586635</v>
       </c>
       <c r="C23">
-        <v>21.2593157983227</v>
+        <v>21.25931579832272</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.854020815661988</v>
+        <v>6.854020815662009</v>
       </c>
       <c r="F23">
-        <v>38.29128543622883</v>
+        <v>38.29128543622887</v>
       </c>
       <c r="G23">
-        <v>25.03827786830714</v>
+        <v>25.03827786830718</v>
       </c>
       <c r="H23">
-        <v>18.60379012377172</v>
+        <v>18.60379012377173</v>
       </c>
       <c r="I23">
-        <v>7.386022310708809</v>
+        <v>7.386022310708815</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.98750813231726</v>
+        <v>11.98750813231724</v>
       </c>
       <c r="L23">
-        <v>20.34636372042993</v>
+        <v>20.34636372042992</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>26.26985210238594</v>
       </c>
       <c r="C24">
-        <v>19.57552641309291</v>
+        <v>19.57552641309289</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.542478767745957</v>
+        <v>6.542478767746015</v>
       </c>
       <c r="F24">
-        <v>35.14944336399339</v>
+        <v>35.14944336399344</v>
       </c>
       <c r="G24">
-        <v>23.4782713718098</v>
+        <v>23.47827137180987</v>
       </c>
       <c r="H24">
-        <v>17.86648240672374</v>
+        <v>17.86648240672383</v>
       </c>
       <c r="I24">
-        <v>7.805986121390954</v>
+        <v>7.805986121391088</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.0635668758599</v>
+        <v>11.06356687585985</v>
       </c>
       <c r="L24">
-        <v>18.81857642533905</v>
+        <v>18.81857642533902</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.69361963862342</v>
+        <v>23.69361963862348</v>
       </c>
       <c r="C25">
         <v>17.64644574626625</v>
@@ -1295,28 +1295,28 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.204641790388707</v>
+        <v>6.204641790388756</v>
       </c>
       <c r="F25">
-        <v>31.69579411206026</v>
+        <v>31.69579411206027</v>
       </c>
       <c r="G25">
-        <v>21.87264025207262</v>
+        <v>21.87264025207261</v>
       </c>
       <c r="H25">
-        <v>17.19810521949535</v>
+        <v>17.19810521949531</v>
       </c>
       <c r="I25">
-        <v>8.257265137023854</v>
+        <v>8.257265137023886</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.999123736760533</v>
+        <v>9.999123736760522</v>
       </c>
       <c r="L25">
-        <v>17.06155374843918</v>
+        <v>17.0615537484392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64578243590537</v>
+        <v>21.64510085748894</v>
       </c>
       <c r="C2">
-        <v>16.1219188832238</v>
+        <v>16.11672966607809</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.95545521818929</v>
+        <v>5.959689331075888</v>
       </c>
       <c r="F2">
-        <v>29.17082928983886</v>
+        <v>29.16112732243011</v>
       </c>
       <c r="G2">
-        <v>20.7548905149835</v>
+        <v>19.41882643139908</v>
       </c>
       <c r="H2">
-        <v>16.80425275251782</v>
+        <v>20.78341664144795</v>
       </c>
       <c r="I2">
-        <v>8.591377738369717</v>
+        <v>16.78895755033146</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.589833566276187</v>
       </c>
       <c r="K2">
-        <v>9.154208293758233</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.6695758552435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.156417414651099</v>
+      </c>
+      <c r="M2">
+        <v>15.67057707404991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.16019606140486</v>
+        <v>20.15971684508869</v>
       </c>
       <c r="C3">
-        <v>15.02071725361326</v>
+        <v>15.01606986074935</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.787026870990393</v>
+        <v>5.791080954396861</v>
       </c>
       <c r="F3">
-        <v>27.39819638233928</v>
+        <v>27.38907584419643</v>
       </c>
       <c r="G3">
-        <v>20.03767265603665</v>
+        <v>18.43167915042251</v>
       </c>
       <c r="H3">
-        <v>16.59287424689316</v>
+        <v>20.06552825525985</v>
       </c>
       <c r="I3">
-        <v>8.820432859738652</v>
+        <v>16.5788017578725</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.818756679121767</v>
       </c>
       <c r="K3">
-        <v>8.542224883244076</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.66313102386344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.544290547630386</v>
+      </c>
+      <c r="M3">
+        <v>14.66414917804746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.19875253641915</v>
+        <v>19.19839621996379</v>
       </c>
       <c r="C4">
-        <v>14.31014768564024</v>
+        <v>14.30584545203725</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.684115363361926</v>
+        <v>5.688059889546003</v>
       </c>
       <c r="F4">
-        <v>26.28123968547326</v>
+        <v>26.27248852261569</v>
       </c>
       <c r="G4">
-        <v>19.61734948522923</v>
+        <v>17.83258382439999</v>
       </c>
       <c r="H4">
-        <v>16.48844395758222</v>
+        <v>19.64486378058426</v>
       </c>
       <c r="I4">
-        <v>8.962808846068153</v>
+        <v>16.47513221928336</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.961046234314027</v>
       </c>
       <c r="K4">
-        <v>8.193210842591473</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>14.01360847000062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.195408884391245</v>
+      </c>
+      <c r="M4">
+        <v>14.01463351309586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79441558137545</v>
+        <v>18.79410922017895</v>
       </c>
       <c r="C5">
-        <v>14.01181177744838</v>
+        <v>14.00765366781622</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.642351591081639</v>
+        <v>5.64625180589068</v>
       </c>
       <c r="F5">
-        <v>25.81927376415607</v>
+        <v>25.81067640986294</v>
       </c>
       <c r="G5">
-        <v>19.45113946368563</v>
+        <v>17.59046127461294</v>
       </c>
       <c r="H5">
-        <v>16.45194776873889</v>
+        <v>19.47853225360422</v>
       </c>
       <c r="I5">
-        <v>9.021324903613518</v>
+        <v>16.43894787259276</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.019525823195041</v>
       </c>
       <c r="K5">
-        <v>8.061051472101893</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.74093915024877</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.063214156324145</v>
+      </c>
+      <c r="M5">
+        <v>13.741966234236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.726514162751</v>
+        <v>18.72621609501254</v>
       </c>
       <c r="C6">
-        <v>13.96174029109035</v>
+        <v>13.95760633255309</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.635428643638156</v>
+        <v>5.639321523362183</v>
       </c>
       <c r="F6">
-        <v>25.74216759092336</v>
+        <v>25.733595979436</v>
       </c>
       <c r="G6">
-        <v>19.42384776176461</v>
+        <v>17.55038676367772</v>
       </c>
       <c r="H6">
-        <v>16.44624411857168</v>
+        <v>19.45122143131396</v>
       </c>
       <c r="I6">
-        <v>9.031073137744931</v>
+        <v>16.43329609481152</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.029267929071978</v>
       </c>
       <c r="K6">
-        <v>8.038971292508879</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.69517937315944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.041128014757735</v>
+      </c>
+      <c r="M6">
+        <v>13.69620675310925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.19335047310497</v>
+        <v>19.19299483060288</v>
       </c>
       <c r="C7">
-        <v>14.30615989006848</v>
+        <v>14.30185958568104</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.683551356332153</v>
+        <v>5.687495283447427</v>
       </c>
       <c r="F7">
-        <v>26.27503638238443</v>
+        <v>26.2662872803302</v>
       </c>
       <c r="G7">
-        <v>19.6150873310035</v>
+        <v>17.82930995980873</v>
       </c>
       <c r="H7">
-        <v>16.487927647792</v>
+        <v>19.64259991677778</v>
       </c>
       <c r="I7">
-        <v>8.963595926120071</v>
+        <v>16.47462010857428</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.96183282746342</v>
       </c>
       <c r="K7">
-        <v>8.191437652314518</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>14.00996353200416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.193635223375342</v>
+      </c>
+      <c r="M7">
+        <v>14.0109886055748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.14369035989615</v>
+        <v>21.14307896631895</v>
       </c>
       <c r="C8">
-        <v>15.74929635271331</v>
+        <v>15.74429156394452</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.897303602265794</v>
+        <v>5.901475488603703</v>
       </c>
       <c r="F8">
-        <v>28.56574643217465</v>
+        <v>28.55624248513195</v>
       </c>
       <c r="G8">
-        <v>20.50345263685099</v>
+        <v>19.07713618636373</v>
       </c>
       <c r="H8">
-        <v>16.72592054477365</v>
+        <v>20.53173291705358</v>
       </c>
       <c r="I8">
-        <v>8.67003343500599</v>
+        <v>16.71104443927462</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.668444932707038</v>
       </c>
       <c r="K8">
-        <v>8.947270812751212</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.32907061648026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.949432008557181</v>
+      </c>
+      <c r="M8">
+        <v>15.33007847373401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58437308814609</v>
+        <v>24.58323939512632</v>
       </c>
       <c r="C9">
-        <v>18.31199912015101</v>
+        <v>18.30569715523143</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.318595538932306</v>
+        <v>6.323218586303072</v>
       </c>
       <c r="F9">
-        <v>32.82013830361429</v>
+        <v>32.80924310114158</v>
       </c>
       <c r="G9">
-        <v>22.40343882651167</v>
+        <v>21.57165576931589</v>
       </c>
       <c r="H9">
-        <v>17.40724390998173</v>
+        <v>22.43378284400134</v>
       </c>
       <c r="I9">
-        <v>8.105175110842556</v>
+        <v>17.38940200957029</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.103880169069839</v>
       </c>
       <c r="K9">
-        <v>10.36700901597814</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.66840767519944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.36948695360788</v>
+      </c>
+      <c r="M9">
+        <v>17.66934848651486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88896407705609</v>
+        <v>26.88741871907582</v>
       </c>
       <c r="C10">
-        <v>20.04105950707758</v>
+        <v>20.03383493213134</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.627220759499294</v>
+        <v>6.632173186617307</v>
       </c>
       <c r="F10">
-        <v>36.0148347628323</v>
+        <v>36.0028804009938</v>
       </c>
       <c r="G10">
-        <v>23.89546570819441</v>
+        <v>23.42716859842849</v>
       </c>
       <c r="H10">
-        <v>18.05611270909172</v>
+        <v>23.92765974323867</v>
       </c>
       <c r="I10">
-        <v>7.692300476007974</v>
+        <v>18.03619803209904</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.691179833571541</v>
       </c>
       <c r="K10">
-        <v>11.31953801063129</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.24159745089999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.32221206048778</v>
+      </c>
+      <c r="M10">
+        <v>19.24246052628885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.89153882647405</v>
+        <v>27.88979620558864</v>
       </c>
       <c r="C11">
-        <v>20.79660068362944</v>
+        <v>20.78895794759263</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.767067689003059</v>
+        <v>6.772168612453451</v>
       </c>
       <c r="F11">
-        <v>37.42474741594609</v>
+        <v>37.41234748907506</v>
       </c>
       <c r="G11">
-        <v>24.59571499689862</v>
+        <v>24.27638311854029</v>
       </c>
       <c r="H11">
-        <v>18.38706358239549</v>
+        <v>24.62882053880593</v>
       </c>
       <c r="I11">
-        <v>7.503843964497142</v>
+        <v>18.36623561342895</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.502789808842747</v>
       </c>
       <c r="K11">
-        <v>11.73413530668391</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.92715927017192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.73689028974898</v>
+      </c>
+      <c r="M11">
+        <v>19.92797871083974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.2648448823748</v>
+        <v>28.2630257404136</v>
       </c>
       <c r="C12">
-        <v>21.07846395083904</v>
+        <v>21.07066261163931</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.819922915820909</v>
+        <v>6.825079808375069</v>
       </c>
       <c r="F12">
-        <v>37.95233536073004</v>
+        <v>37.93976669094963</v>
       </c>
       <c r="G12">
-        <v>24.8640866045811</v>
+        <v>24.59880920332043</v>
       </c>
       <c r="H12">
-        <v>18.51782069317589</v>
+        <v>24.89754710991972</v>
       </c>
       <c r="I12">
-        <v>7.432289767295308</v>
+        <v>18.49665150310523</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.431258496802538</v>
       </c>
       <c r="K12">
-        <v>11.88852792067661</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.18257993947378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.8913123175658</v>
+      </c>
+      <c r="M12">
+        <v>20.1833814622507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18472498368524</v>
+        <v>28.18292240971267</v>
       </c>
       <c r="C13">
-        <v>21.01794467116974</v>
+        <v>21.0101775095838</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.808544419189727</v>
+        <v>6.813689270604587</v>
       </c>
       <c r="F13">
-        <v>37.83898592891307</v>
+        <v>37.82645360913931</v>
       </c>
       <c r="G13">
-        <v>24.80614318482607</v>
+        <v>24.52932868047907</v>
       </c>
       <c r="H13">
-        <v>18.48941348781943</v>
+        <v>24.83952681096584</v>
       </c>
       <c r="I13">
-        <v>7.447710328344461</v>
+        <v>18.46831757639198</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.446674239723341</v>
       </c>
       <c r="K13">
-        <v>11.85539118461069</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.12775429495556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.8581693024112</v>
+      </c>
+      <c r="M13">
+        <v>20.1285597422935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.92237669730532</v>
+        <v>27.92062781991696</v>
       </c>
       <c r="C14">
-        <v>20.81987346386778</v>
+        <v>20.8122176875076</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.771418268256589</v>
+        <v>6.776523801990701</v>
       </c>
       <c r="F14">
-        <v>37.46827725303438</v>
+        <v>37.45586344657728</v>
       </c>
       <c r="G14">
-        <v>24.61772907746272</v>
+        <v>24.30289141090523</v>
       </c>
       <c r="H14">
-        <v>18.39771047968417</v>
+        <v>24.65086362761142</v>
       </c>
       <c r="I14">
-        <v>7.497961550448072</v>
+        <v>18.37685434417279</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.496909326575524</v>
       </c>
       <c r="K14">
-        <v>11.74688899916337</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.94825591886013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.74964642714381</v>
+      </c>
+      <c r="M14">
+        <v>19.94907391464513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.76086168108015</v>
+        <v>27.75914544469743</v>
       </c>
       <c r="C15">
-        <v>20.69800332812374</v>
+        <v>20.69041573007837</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.74866360497778</v>
+        <v>6.753745019161188</v>
       </c>
       <c r="F15">
-        <v>37.2403938061357</v>
+        <v>37.2280525766616</v>
       </c>
       <c r="G15">
-        <v>24.50274126530536</v>
+        <v>24.16430700022812</v>
       </c>
       <c r="H15">
-        <v>18.34225598695068</v>
+        <v>24.53572451709835</v>
       </c>
       <c r="I15">
-        <v>7.528714116020398</v>
+        <v>18.32154733082369</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.52765169466479</v>
       </c>
       <c r="K15">
-        <v>11.68009151290165</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.83776723458371</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.68283610558291</v>
+      </c>
+      <c r="M15">
+        <v>19.83859272844535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82254174728321</v>
+        <v>26.82100904821733</v>
       </c>
       <c r="C16">
-        <v>19.99107689933274</v>
+        <v>19.98387964385214</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.61806829540473</v>
+        <v>6.623010984887241</v>
       </c>
       <c r="F16">
-        <v>35.92179438769723</v>
+        <v>35.90986916644288</v>
       </c>
       <c r="G16">
-        <v>23.85014369583311</v>
+        <v>23.37178114339527</v>
       </c>
       <c r="H16">
-        <v>18.0352287434195</v>
+        <v>23.88227954680591</v>
       </c>
       <c r="I16">
-        <v>7.704595505373664</v>
+        <v>18.01537438333289</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.703470224661311</v>
       </c>
       <c r="K16">
-        <v>11.29207357105613</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.19620043957219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.29474216172725</v>
+      </c>
+      <c r="M16">
+        <v>19.19706618332458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.23534557406796</v>
+        <v>26.23392265346977</v>
       </c>
       <c r="C17">
-        <v>19.54960239913285</v>
+        <v>19.54264468013258</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.537793559263292</v>
+        <v>6.542650751396127</v>
       </c>
       <c r="F17">
-        <v>35.10133165532301</v>
+        <v>35.08966207683139</v>
       </c>
       <c r="G17">
-        <v>23.45536662740136</v>
+        <v>22.88695837432376</v>
       </c>
       <c r="H17">
-        <v>17.85624455271211</v>
+        <v>23.48700035305857</v>
       </c>
       <c r="I17">
-        <v>7.812262280470315</v>
+        <v>17.83692217541708</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.811094877308755</v>
       </c>
       <c r="K17">
-        <v>11.04930164912833</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.79500706105443</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.05192146766091</v>
+      </c>
+      <c r="M17">
+        <v>18.79589524179143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89327982239752</v>
+        <v>25.89191912885902</v>
       </c>
       <c r="C18">
-        <v>19.29274410245876</v>
+        <v>19.28592433495618</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.491571038146626</v>
+        <v>6.496378932332886</v>
       </c>
       <c r="F18">
-        <v>34.62510134944555</v>
+        <v>34.61357909796272</v>
       </c>
       <c r="G18">
-        <v>23.23031708502453</v>
+        <v>22.608572745217</v>
       </c>
       <c r="H18">
-        <v>17.7566478114301</v>
+        <v>23.26166859973336</v>
       </c>
       <c r="I18">
-        <v>7.874135664114792</v>
+        <v>17.73763419290602</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.872942861796386</v>
       </c>
       <c r="K18">
-        <v>10.90789873995328</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.561409522069</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.91048973006735</v>
+      </c>
+      <c r="M18">
+        <v>18.56230984322925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.77671236568598</v>
+        <v>25.7753725948694</v>
       </c>
       <c r="C19">
-        <v>19.20526621792792</v>
+        <v>19.19849320227506</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.475912996259638</v>
+        <v>6.480704180222629</v>
       </c>
       <c r="F19">
-        <v>34.46310889347576</v>
+        <v>34.45163658519169</v>
       </c>
       <c r="G19">
-        <v>23.15446303289293</v>
+        <v>22.51439517276889</v>
       </c>
       <c r="H19">
-        <v>17.72349276833367</v>
+        <v>23.18572013688453</v>
       </c>
       <c r="I19">
-        <v>7.89507857167817</v>
+        <v>17.70458415317919</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.893876980115203</v>
       </c>
       <c r="K19">
-        <v>10.85971624364587</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.48182537433561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.86229734079353</v>
+      </c>
+      <c r="M19">
+        <v>18.48272968043969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2982996898358</v>
+        <v>26.29686518039276</v>
       </c>
       <c r="C20">
-        <v>19.5969002670791</v>
+        <v>19.58991703400459</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.546344367050925</v>
+        <v>6.551210673681107</v>
       </c>
       <c r="F20">
-        <v>35.18911695081744</v>
+        <v>35.17742013164816</v>
       </c>
       <c r="G20">
-        <v>23.49718209702886</v>
+        <v>22.93851924939534</v>
       </c>
       <c r="H20">
-        <v>17.87494891932885</v>
+        <v>23.52886859374865</v>
       </c>
       <c r="I20">
-        <v>7.800807212480911</v>
+        <v>17.85556962102783</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.799644417416594</v>
       </c>
       <c r="K20">
-        <v>11.07532742046832</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.83800793242314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.07795251146191</v>
+      </c>
+      <c r="M20">
+        <v>18.83889380523773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99960499122683</v>
+        <v>27.99784039466148</v>
       </c>
       <c r="C21">
-        <v>20.87816510003815</v>
+        <v>20.87047661815437</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.782326031369659</v>
+        <v>6.787443121355185</v>
       </c>
       <c r="F21">
-        <v>37.57733239443753</v>
+        <v>37.56488378190132</v>
       </c>
       <c r="G21">
-        <v>24.67298279717715</v>
+        <v>24.36937725679877</v>
       </c>
       <c r="H21">
-        <v>18.42449608378283</v>
+        <v>24.70619024322366</v>
       </c>
       <c r="I21">
-        <v>7.483207519035561</v>
+        <v>18.40356939282168</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.482160100956249</v>
       </c>
       <c r="K21">
-        <v>11.77882873875962</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.00109135644529</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.7815922777373</v>
+      </c>
+      <c r="M21">
+        <v>20.00190570608171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.07463873012744</v>
+        <v>29.07264755838827</v>
       </c>
       <c r="C22">
-        <v>21.69092960209263</v>
+        <v>21.68277844545047</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.935954556563667</v>
+        <v>6.94123398206153</v>
       </c>
       <c r="F22">
-        <v>39.10152536144585</v>
+        <v>39.08858505610293</v>
       </c>
       <c r="G22">
-        <v>25.46019784617916</v>
+        <v>25.3502291890731</v>
       </c>
       <c r="H22">
-        <v>18.81546716260583</v>
+        <v>25.49445629553046</v>
       </c>
       <c r="I22">
-        <v>7.274480533746932</v>
+        <v>18.79355613796242</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.273494844897839</v>
       </c>
       <c r="K22">
-        <v>12.22346150755043</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.73690944322116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.22630830868653</v>
+      </c>
+      <c r="M22">
+        <v>20.7376688011755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.50416110586635</v>
+        <v>28.50229199734872</v>
       </c>
       <c r="C23">
-        <v>21.25931579832272</v>
+        <v>21.25141191493683</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.854020815662009</v>
+        <v>6.859213765753719</v>
       </c>
       <c r="F23">
-        <v>38.29128543622887</v>
+        <v>38.27860774705648</v>
       </c>
       <c r="G23">
-        <v>25.03827786830718</v>
+        <v>24.8152259884552</v>
       </c>
       <c r="H23">
-        <v>18.60379012377173</v>
+        <v>25.07197025062364</v>
       </c>
       <c r="I23">
-        <v>7.386022310708815</v>
+        <v>18.58240191701309</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.38500511422639</v>
       </c>
       <c r="K23">
-        <v>11.98750813231724</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.34636372042992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.99031117347249</v>
+      </c>
+      <c r="M23">
+        <v>20.34715325952541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26985210238594</v>
+        <v>26.26842283499128</v>
       </c>
       <c r="C24">
-        <v>19.57552641309289</v>
+        <v>19.56855471415231</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.542478767746015</v>
+        <v>6.547340954156493</v>
       </c>
       <c r="F24">
-        <v>35.14944336399344</v>
+        <v>35.13775885919981</v>
       </c>
       <c r="G24">
-        <v>23.47827137180987</v>
+        <v>22.91520750895755</v>
       </c>
       <c r="H24">
-        <v>17.86648240672383</v>
+        <v>23.50993399057017</v>
       </c>
       <c r="I24">
-        <v>7.805986121391088</v>
+        <v>17.84712883336021</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.804821246656629</v>
       </c>
       <c r="K24">
-        <v>11.06356687585985</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.81857642533902</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.06618958562732</v>
+      </c>
+      <c r="M24">
+        <v>18.8194633439142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.69361963862348</v>
+        <v>23.69263094744386</v>
       </c>
       <c r="C25">
-        <v>17.64644574626625</v>
+        <v>17.64048777103594</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.204641790388756</v>
+        <v>6.209142836966262</v>
       </c>
       <c r="F25">
-        <v>31.69579411206027</v>
+        <v>31.68526717606044</v>
       </c>
       <c r="G25">
-        <v>21.87264025207261</v>
+        <v>20.89262108946223</v>
       </c>
       <c r="H25">
-        <v>17.19810521949531</v>
+        <v>21.90236660346608</v>
       </c>
       <c r="I25">
-        <v>8.257265137023886</v>
+        <v>17.18104960779211</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.255897013508438</v>
       </c>
       <c r="K25">
-        <v>9.999123736760522</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.0615537484392</v>
+        <v>10.00152233372414</v>
+      </c>
+      <c r="M25">
+        <v>17.06251705844799</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.64510085748894</v>
+        <v>22.52378881495394</v>
       </c>
       <c r="C2">
-        <v>16.11672966607809</v>
+        <v>10.88570257652587</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.959689331075888</v>
+        <v>6.934886320740481</v>
       </c>
       <c r="F2">
-        <v>29.16112732243011</v>
+        <v>35.13763498560436</v>
       </c>
       <c r="G2">
-        <v>19.41882643139908</v>
+        <v>2.106657230973846</v>
       </c>
       <c r="H2">
-        <v>20.78341664144795</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.78895755033146</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.589833566276187</v>
+        <v>5.693430630927794</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.48641382181041</v>
       </c>
       <c r="L2">
-        <v>9.156417414651099</v>
+        <v>7.58748219826192</v>
       </c>
       <c r="M2">
-        <v>15.67057707404991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>13.56027091903025</v>
+      </c>
+      <c r="O2">
+        <v>25.14705877457686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.15971684508869</v>
+        <v>21.16941520705111</v>
       </c>
       <c r="C3">
-        <v>15.01606986074935</v>
+        <v>10.18731925485314</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.791080954396861</v>
+        <v>6.896266524499292</v>
       </c>
       <c r="F3">
-        <v>27.38907584419643</v>
+        <v>34.10284382055367</v>
       </c>
       <c r="G3">
-        <v>18.43167915042251</v>
+        <v>2.115972624520821</v>
       </c>
       <c r="H3">
-        <v>20.06552825525985</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.5788017578725</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.818756679121767</v>
+        <v>5.777916251950279</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.39289448193982</v>
       </c>
       <c r="L3">
-        <v>8.544290547630386</v>
+        <v>7.380889987784021</v>
       </c>
       <c r="M3">
-        <v>14.66414917804746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>13.82048433445317</v>
+      </c>
+      <c r="O3">
+        <v>24.59334236410186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.19839621996379</v>
+        <v>20.30799564032376</v>
       </c>
       <c r="C4">
-        <v>14.30584545203725</v>
+        <v>9.737889236594444</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.688059889546003</v>
+        <v>6.874434134876473</v>
       </c>
       <c r="F4">
-        <v>26.27248852261569</v>
+        <v>33.48408790368532</v>
       </c>
       <c r="G4">
-        <v>17.83258382439999</v>
+        <v>2.121835984134008</v>
       </c>
       <c r="H4">
-        <v>19.64486378058426</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.47513221928336</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.961046234314027</v>
+        <v>5.830625877245669</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.72068631396297</v>
       </c>
       <c r="L4">
-        <v>8.195408884391245</v>
+        <v>7.254804791819776</v>
       </c>
       <c r="M4">
-        <v>14.01463351309586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>13.98339682834787</v>
+      </c>
+      <c r="O4">
+        <v>24.27305744911589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.79410922017895</v>
+        <v>19.94971322447402</v>
       </c>
       <c r="C5">
-        <v>14.00765366781622</v>
+        <v>9.549522075300604</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.64625180589068</v>
+        <v>6.866005687670502</v>
       </c>
       <c r="F5">
-        <v>25.81067640986294</v>
+        <v>33.23629179903397</v>
       </c>
       <c r="G5">
-        <v>17.59046127461294</v>
+        <v>2.124263321547305</v>
       </c>
       <c r="H5">
-        <v>19.47853225360422</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.43894787259276</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.019525823195041</v>
+        <v>5.852333299404903</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.44108206350122</v>
       </c>
       <c r="L5">
-        <v>8.063214156324145</v>
+        <v>7.203674967373858</v>
       </c>
       <c r="M5">
-        <v>13.741966234236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>14.05060659113509</v>
+      </c>
+      <c r="O5">
+        <v>24.14743353640966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.72621609501254</v>
+        <v>19.88979193992066</v>
       </c>
       <c r="C6">
-        <v>13.95760633255309</v>
+        <v>9.517927754747353</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.639321523362183</v>
+        <v>6.864634316818679</v>
       </c>
       <c r="F6">
-        <v>25.733595979436</v>
+        <v>33.1954134856221</v>
       </c>
       <c r="G6">
-        <v>17.55038676367772</v>
+        <v>2.124668724014496</v>
       </c>
       <c r="H6">
-        <v>19.45122143131396</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.43329609481152</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.029267929071978</v>
+        <v>5.855952059459681</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.39431804843853</v>
       </c>
       <c r="L6">
-        <v>8.041128014757735</v>
+        <v>7.195201836384639</v>
       </c>
       <c r="M6">
-        <v>13.69620675310925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14.06181725913396</v>
+      </c>
+      <c r="O6">
+        <v>24.12686750417393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.19299483060288</v>
+        <v>20.30319266918874</v>
       </c>
       <c r="C7">
-        <v>14.30185958568104</v>
+        <v>9.735370027229331</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.687495283447427</v>
+        <v>6.874318574917471</v>
       </c>
       <c r="F7">
-        <v>26.2662872803302</v>
+        <v>33.48072818303305</v>
       </c>
       <c r="G7">
-        <v>17.82930995980873</v>
+        <v>2.121868563962735</v>
       </c>
       <c r="H7">
-        <v>19.64259991677778</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.47462010857428</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.96183282746342</v>
+        <v>5.830917685956512</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.71693815120106</v>
       </c>
       <c r="L7">
-        <v>8.193635223375342</v>
+        <v>7.254114140960692</v>
       </c>
       <c r="M7">
-        <v>14.0109886055748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>13.98429987453123</v>
+      </c>
+      <c r="O7">
+        <v>24.27134350687334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.14307896631895</v>
+        <v>22.06312069890149</v>
       </c>
       <c r="C8">
-        <v>15.74429156394452</v>
+        <v>10.64915383578803</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.901475488603703</v>
+        <v>6.921177229224358</v>
       </c>
       <c r="F8">
-        <v>28.55624248513195</v>
+        <v>34.77749429830935</v>
       </c>
       <c r="G8">
-        <v>19.07713618636373</v>
+        <v>2.109840510132999</v>
       </c>
       <c r="H8">
-        <v>20.53173291705358</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.71104443927462</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.668444932707038</v>
+        <v>5.722399059066684</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.09025392497403</v>
       </c>
       <c r="L8">
-        <v>8.949432008557181</v>
+        <v>7.516125116199929</v>
       </c>
       <c r="M8">
-        <v>15.33007847373401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>13.64936024392422</v>
+      </c>
+      <c r="O8">
+        <v>24.95201584298383</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58323939512632</v>
+        <v>25.27023869076417</v>
       </c>
       <c r="C9">
-        <v>18.30569715523143</v>
+        <v>12.27980652423427</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.323218586303072</v>
+        <v>7.028207274870379</v>
       </c>
       <c r="F9">
-        <v>32.80924310114158</v>
+        <v>37.44525278957938</v>
       </c>
       <c r="G9">
-        <v>21.57165576931589</v>
+        <v>2.087303026959892</v>
       </c>
       <c r="H9">
-        <v>22.43378284400134</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.38940200957029</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.103880169069839</v>
+        <v>5.515347598580047</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.93814993909529</v>
       </c>
       <c r="L9">
-        <v>10.36948695360788</v>
+        <v>8.03360017770709</v>
       </c>
       <c r="M9">
-        <v>17.66934848651486</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>13.0159697918135</v>
+      </c>
+      <c r="O9">
+        <v>26.4455346569141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.88741871907582</v>
+        <v>27.52906104208786</v>
       </c>
       <c r="C10">
-        <v>20.03383493213134</v>
+        <v>13.38374385669495</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.632173186617307</v>
+        <v>7.116430302232766</v>
       </c>
       <c r="F10">
-        <v>36.0028804009938</v>
+        <v>39.473829219626</v>
       </c>
       <c r="G10">
-        <v>23.42716859842849</v>
+        <v>2.071246278141616</v>
       </c>
       <c r="H10">
-        <v>23.92765974323867</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>18.03619803209904</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.691179833571541</v>
+        <v>5.365405692939778</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.86508329511269</v>
       </c>
       <c r="L10">
-        <v>11.32221206048778</v>
+        <v>8.413215764531218</v>
       </c>
       <c r="M10">
-        <v>19.24246052628885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12.56276844379658</v>
+      </c>
+      <c r="O10">
+        <v>27.64314134866827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.88979620558864</v>
+        <v>28.56889154165048</v>
       </c>
       <c r="C11">
-        <v>20.78895794759263</v>
+        <v>13.86670693677217</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.772168612453451</v>
+        <v>7.158743672062267</v>
       </c>
       <c r="F11">
-        <v>37.41234748907506</v>
+        <v>40.41068267099654</v>
       </c>
       <c r="G11">
-        <v>24.27638311854029</v>
+        <v>2.064016063424611</v>
       </c>
       <c r="H11">
-        <v>24.62882053880593</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>18.36623561342895</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.502789808842747</v>
+        <v>5.297337914905887</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.70430853104456</v>
       </c>
       <c r="L11">
-        <v>11.73689028974898</v>
+        <v>8.585318530426376</v>
       </c>
       <c r="M11">
-        <v>19.92797871083974</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>12.35876345769796</v>
+      </c>
+      <c r="O11">
+        <v>28.21070595383858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.2630257404136</v>
+        <v>28.956555648847</v>
       </c>
       <c r="C12">
-        <v>21.07066261163931</v>
+        <v>14.04694444573873</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.825079808375069</v>
+        <v>7.175089717107349</v>
       </c>
       <c r="F12">
-        <v>37.93976669094963</v>
+        <v>40.76744716467814</v>
       </c>
       <c r="G12">
-        <v>24.59880920332043</v>
+        <v>2.061285604808606</v>
       </c>
       <c r="H12">
-        <v>24.89754710991972</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.49665150310523</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.431258496802538</v>
+        <v>5.271552466422619</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.01691903228073</v>
       </c>
       <c r="L12">
-        <v>11.8913123175658</v>
+        <v>8.650375170892184</v>
       </c>
       <c r="M12">
-        <v>20.1833814622507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>12.28178446287577</v>
+      </c>
+      <c r="O12">
+        <v>28.42900352777977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18292240971267</v>
+        <v>28.87333336632318</v>
       </c>
       <c r="C13">
-        <v>21.0101775095838</v>
+        <v>14.00824294680167</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.813689270604587</v>
+        <v>7.171554774381102</v>
       </c>
       <c r="F13">
-        <v>37.82645360913931</v>
+        <v>40.69052242442998</v>
       </c>
       <c r="G13">
-        <v>24.52932868047907</v>
+        <v>2.061873380363912</v>
       </c>
       <c r="H13">
-        <v>24.83952681096584</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.46831757639198</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.446674239723341</v>
+        <v>5.277106764028883</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.94982027514173</v>
       </c>
       <c r="L13">
-        <v>11.8581693024112</v>
+        <v>8.636369575472841</v>
       </c>
       <c r="M13">
-        <v>20.1285597422935</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>12.29835169851201</v>
+      </c>
+      <c r="O13">
+        <v>28.38183733684788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.92062781991696</v>
+        <v>28.60090600767855</v>
       </c>
       <c r="C14">
-        <v>20.8122176875076</v>
+        <v>13.88158758596399</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.776523801990701</v>
+        <v>7.160081939669608</v>
       </c>
       <c r="F14">
-        <v>37.45586344657728</v>
+        <v>40.43999377792217</v>
       </c>
       <c r="G14">
-        <v>24.30289141090523</v>
+        <v>2.06379129681197</v>
       </c>
       <c r="H14">
-        <v>24.65086362761142</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.37685434417279</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.496909326575524</v>
+        <v>5.295216906784108</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.7301299955019</v>
       </c>
       <c r="L14">
-        <v>11.74964642714381</v>
+        <v>8.590673230586649</v>
       </c>
       <c r="M14">
-        <v>19.94907391464513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>12.35242508362539</v>
+      </c>
+      <c r="O14">
+        <v>28.22859715590382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75914544469743</v>
+        <v>28.43324795614958</v>
       </c>
       <c r="C15">
-        <v>20.69041573007837</v>
+        <v>13.80366605951892</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.753745019161188</v>
+        <v>7.153096855842326</v>
       </c>
       <c r="F15">
-        <v>37.2280525766616</v>
+        <v>40.28679829227359</v>
       </c>
       <c r="G15">
-        <v>24.16430700022812</v>
+        <v>2.064966947864586</v>
       </c>
       <c r="H15">
-        <v>24.53572451709835</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>18.32154733082369</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.52765169466479</v>
+        <v>5.306307692271291</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.59489378941922</v>
       </c>
       <c r="L15">
-        <v>11.68283610558291</v>
+        <v>8.56266715527174</v>
       </c>
       <c r="M15">
-        <v>19.83859272844535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12.38558108701944</v>
+      </c>
+      <c r="O15">
+        <v>28.1351758211182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.82100904821733</v>
+        <v>27.46024246762166</v>
       </c>
       <c r="C16">
-        <v>19.98387964385214</v>
+        <v>13.35180365635194</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.623010984887241</v>
+        <v>7.113709657826711</v>
       </c>
       <c r="F16">
-        <v>35.90986916644288</v>
+        <v>39.41288324100521</v>
       </c>
       <c r="G16">
-        <v>23.37178114339527</v>
+        <v>2.071720015856362</v>
       </c>
       <c r="H16">
-        <v>23.88227954680591</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>18.01537438333289</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.703470224661311</v>
+        <v>5.369854432341894</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.80950180721</v>
       </c>
       <c r="L16">
-        <v>11.29474216172725</v>
+        <v>8.401953851266326</v>
       </c>
       <c r="M16">
-        <v>19.19706618332458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>12.57614090200108</v>
+      </c>
+      <c r="O16">
+        <v>27.60651568820311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.23392265346977</v>
+        <v>26.85228306962185</v>
       </c>
       <c r="C17">
-        <v>19.54264468013258</v>
+        <v>13.06975337971588</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.542650751396127</v>
+        <v>7.090111437439658</v>
       </c>
       <c r="F17">
-        <v>35.08966207683139</v>
+        <v>38.88033025816128</v>
       </c>
       <c r="G17">
-        <v>22.88695837432376</v>
+        <v>2.075879618019358</v>
       </c>
       <c r="H17">
-        <v>23.48700035305857</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.83692217541708</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.811094877308755</v>
+        <v>5.408854117522683</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.31824961793028</v>
       </c>
       <c r="L17">
-        <v>11.05192146766091</v>
+        <v>8.303187057041708</v>
       </c>
       <c r="M17">
-        <v>18.79589524179143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>12.69356951605593</v>
+      </c>
+      <c r="O17">
+        <v>27.28809364553911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89191912885902</v>
+        <v>26.51657827828726</v>
       </c>
       <c r="C18">
-        <v>19.28592433495618</v>
+        <v>12.90570834095561</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.496378932332886</v>
+        <v>7.076742929081964</v>
       </c>
       <c r="F18">
-        <v>34.61357909796272</v>
+        <v>38.5753399812868</v>
       </c>
       <c r="G18">
-        <v>22.608572745217</v>
+        <v>2.078279293979937</v>
       </c>
       <c r="H18">
-        <v>23.26166859973336</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.73763419290602</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.872942861796386</v>
+        <v>5.431300992283291</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.03216706577865</v>
       </c>
       <c r="L18">
-        <v>10.91048973006735</v>
+        <v>8.246325192437263</v>
       </c>
       <c r="M18">
-        <v>18.56230984322925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>12.76131674551451</v>
+      </c>
+      <c r="O18">
+        <v>27.10708138491751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7753725948694</v>
+        <v>26.40509420567519</v>
       </c>
       <c r="C19">
-        <v>19.19849320227506</v>
+        <v>12.84985018490487</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.480704180222629</v>
+        <v>7.072251458354685</v>
       </c>
       <c r="F19">
-        <v>34.45163658519169</v>
+        <v>38.47230373835784</v>
       </c>
       <c r="G19">
-        <v>22.51439517276889</v>
+        <v>2.079093108219306</v>
       </c>
       <c r="H19">
-        <v>23.18572013688453</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.70458415317919</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.893876980115203</v>
+        <v>5.438904610779165</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.93469328394809</v>
       </c>
       <c r="L19">
-        <v>10.86229734079353</v>
+        <v>8.227064558478064</v>
       </c>
       <c r="M19">
-        <v>18.48272968043969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>12.78429120759052</v>
+      </c>
+      <c r="O19">
+        <v>27.0461579452774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.29686518039276</v>
+        <v>26.91742610279398</v>
       </c>
       <c r="C20">
-        <v>19.58991703400459</v>
+        <v>13.09996540758776</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.551210673681107</v>
+        <v>7.092602274414552</v>
       </c>
       <c r="F20">
-        <v>35.17742013164816</v>
+        <v>38.93688512623913</v>
       </c>
       <c r="G20">
-        <v>22.93851924939534</v>
+        <v>2.075436099857813</v>
       </c>
       <c r="H20">
-        <v>23.52886859374865</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.85556962102783</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.799644417416594</v>
+        <v>5.404701160266749</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.3709080336832</v>
       </c>
       <c r="L20">
-        <v>11.07795251146191</v>
+        <v>8.31370676731569</v>
       </c>
       <c r="M20">
-        <v>18.83889380523773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>12.68104805217792</v>
+      </c>
+      <c r="O20">
+        <v>27.32176854673607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.99784039466148</v>
+        <v>28.68108848546925</v>
       </c>
       <c r="C21">
-        <v>20.87047661815437</v>
+        <v>13.91886026895192</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.787443121355185</v>
+        <v>7.163442942467752</v>
       </c>
       <c r="F21">
-        <v>37.56488378190132</v>
+        <v>40.51352577784609</v>
       </c>
       <c r="G21">
-        <v>24.36937725679877</v>
+        <v>2.063227782758689</v>
       </c>
       <c r="H21">
-        <v>24.70619024322366</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>18.40356939282168</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.482160100956249</v>
+        <v>5.289898035186541</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.79479753740849</v>
       </c>
       <c r="L21">
-        <v>11.7815922777373</v>
+        <v>8.604098679522647</v>
       </c>
       <c r="M21">
-        <v>20.00190570608171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>12.33653529661573</v>
+      </c>
+      <c r="O21">
+        <v>28.27351503593157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.07264755838827</v>
+        <v>29.79830690582567</v>
       </c>
       <c r="C22">
-        <v>21.68277844545047</v>
+        <v>14.43867329866594</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.94123398206153</v>
+        <v>7.211629207857453</v>
       </c>
       <c r="F22">
-        <v>39.08858505610293</v>
+        <v>41.55563010351144</v>
       </c>
       <c r="G22">
-        <v>25.3502291890731</v>
+        <v>2.055290721526048</v>
       </c>
       <c r="H22">
-        <v>25.49445629553046</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.79355613796242</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.273494844897839</v>
+        <v>5.214795089457751</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.69526369003794</v>
       </c>
       <c r="L22">
-        <v>12.22630830868653</v>
+        <v>8.793208080485984</v>
       </c>
       <c r="M22">
-        <v>20.7376688011755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>12.11295241983471</v>
+      </c>
+      <c r="O22">
+        <v>28.9152653342078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.50229199734872</v>
+        <v>29.20520427739238</v>
       </c>
       <c r="C23">
-        <v>21.25141191493683</v>
+        <v>14.16260474682786</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.859213765753719</v>
+        <v>7.185734966494975</v>
       </c>
       <c r="F23">
-        <v>38.27860774705648</v>
+        <v>40.99836342672983</v>
       </c>
       <c r="G23">
-        <v>24.8152259884552</v>
+        <v>2.059524204928826</v>
       </c>
       <c r="H23">
-        <v>25.07197025062364</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.58240191701309</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.38500511422639</v>
+        <v>5.254896298739991</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.21735878083774</v>
       </c>
       <c r="L23">
-        <v>11.99031117347249</v>
+        <v>8.692346979280048</v>
       </c>
       <c r="M23">
-        <v>20.34715325952541</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>12.23215068417719</v>
+      </c>
+      <c r="O23">
+        <v>28.57090554045009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.26842283499128</v>
+        <v>26.8879882590761</v>
       </c>
       <c r="C24">
-        <v>19.56855471415231</v>
+        <v>13.08631244693936</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.547340954156493</v>
+        <v>7.091475549654692</v>
       </c>
       <c r="F24">
-        <v>35.13775885919981</v>
+        <v>38.91131298785238</v>
       </c>
       <c r="G24">
-        <v>22.91520750895755</v>
+        <v>2.075636588437998</v>
       </c>
       <c r="H24">
-        <v>23.50993399057017</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.84712883336021</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.804821246656629</v>
+        <v>5.406578630785464</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.34711256253176</v>
       </c>
       <c r="L24">
-        <v>11.06618958562732</v>
+        <v>8.308951051559534</v>
       </c>
       <c r="M24">
-        <v>18.8194633439142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>12.6867082682329</v>
+      </c>
+      <c r="O24">
+        <v>27.30653773695564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.69263094744386</v>
+        <v>24.42952907641934</v>
       </c>
       <c r="C25">
-        <v>17.64048777103594</v>
+        <v>11.85555193269498</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.209142836966262</v>
+        <v>6.997597644042243</v>
       </c>
       <c r="F25">
-        <v>31.68526717606044</v>
+        <v>36.71107345945755</v>
       </c>
       <c r="G25">
-        <v>20.89262108946223</v>
+        <v>2.093301160002834</v>
       </c>
       <c r="H25">
-        <v>21.90236660346608</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.18104960779211</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.255897013508438</v>
+        <v>5.570874721305295</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.1942910452031</v>
       </c>
       <c r="L25">
-        <v>10.00152233372414</v>
+        <v>7.893528125866929</v>
       </c>
       <c r="M25">
-        <v>17.06251705844799</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>13.18502790432686</v>
+      </c>
+      <c r="O25">
+        <v>26.02415554202994</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.52378881495394</v>
+        <v>13.12632520526155</v>
       </c>
       <c r="C2">
-        <v>10.88570257652587</v>
+        <v>8.537686783153978</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.934886320740481</v>
+        <v>8.386140133326345</v>
       </c>
       <c r="F2">
-        <v>35.13763498560436</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.106657230973846</v>
+        <v>20.51016499597269</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.062842761502001</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.693430630927794</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.48641382181041</v>
+        <v>11.10972256556474</v>
       </c>
       <c r="L2">
-        <v>7.58748219826192</v>
+        <v>6.191308017698824</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.463687521380303</v>
       </c>
       <c r="N2">
-        <v>13.56027091903025</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>25.14705877457686</v>
+        <v>14.35560579938896</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.16941520705111</v>
+        <v>12.26295269222928</v>
       </c>
       <c r="C3">
-        <v>10.18731925485314</v>
+        <v>8.610754592490251</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.896266524499292</v>
+        <v>8.423141990009412</v>
       </c>
       <c r="F3">
-        <v>34.10284382055367</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.115972624520821</v>
+        <v>20.86450624571726</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>9.207657346080589</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.777916251950279</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.39289448193982</v>
+        <v>10.57442258886772</v>
       </c>
       <c r="L3">
-        <v>7.380889987784021</v>
+        <v>6.110877191401041</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.121904166086466</v>
       </c>
       <c r="N3">
-        <v>13.82048433445317</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>24.59334236410186</v>
+        <v>14.61017840196442</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.30799564032376</v>
+        <v>11.701111829665</v>
       </c>
       <c r="C4">
-        <v>9.737889236594444</v>
+        <v>8.658106395210114</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.874434134876473</v>
+        <v>8.450648061564435</v>
       </c>
       <c r="F4">
-        <v>33.48408790368532</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.121835984134008</v>
+        <v>21.10576481672635</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>9.300841540094217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.830625877245669</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.72068631396297</v>
+        <v>10.23097203019484</v>
       </c>
       <c r="L4">
-        <v>7.254804791819776</v>
+        <v>6.063526706430006</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.908111047904935</v>
       </c>
       <c r="N4">
-        <v>13.98339682834787</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>24.27305744911589</v>
+        <v>14.77636743860471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.94971322447402</v>
+        <v>11.46414933757339</v>
       </c>
       <c r="C5">
-        <v>9.549522075300604</v>
+        <v>8.678024623106303</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.866005687670502</v>
+        <v>8.463030752432289</v>
       </c>
       <c r="F5">
-        <v>33.23629179903397</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.124263321547305</v>
+        <v>21.2097312005921</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.339872906799007</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.852333299404903</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.44108206350122</v>
+        <v>10.08739725155003</v>
       </c>
       <c r="L5">
-        <v>7.203674967373858</v>
+        <v>6.044754817321699</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.82012347347926</v>
       </c>
       <c r="N5">
-        <v>14.05060659113509</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>24.14743353640966</v>
+        <v>14.84649967655903</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.88979193992066</v>
+        <v>11.42431743007762</v>
       </c>
       <c r="C6">
-        <v>9.517927754747353</v>
+        <v>8.681369497326195</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.864634316818679</v>
+        <v>8.465156912976468</v>
       </c>
       <c r="F6">
-        <v>33.1954134856221</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.124668724014496</v>
+        <v>21.22732756012779</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.346417534921732</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.855952059459681</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.39431804843853</v>
+        <v>10.06334165341565</v>
       </c>
       <c r="L6">
-        <v>7.195201836384639</v>
+        <v>6.041669732865532</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.805464832812589</v>
       </c>
       <c r="N6">
-        <v>14.06181725913396</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24.12686750417393</v>
+        <v>14.85828849773837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.30319266918874</v>
+        <v>11.69794853146624</v>
       </c>
       <c r="C7">
-        <v>9.735370027229331</v>
+        <v>8.658372505493144</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.874318574917471</v>
+        <v>8.450810345640642</v>
       </c>
       <c r="F7">
-        <v>33.48072818303305</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.121868563962735</v>
+        <v>21.10714444876449</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>9.301363665224883</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.830917685956512</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.71693815120106</v>
+        <v>10.22905022611283</v>
       </c>
       <c r="L7">
-        <v>7.254114140960692</v>
+        <v>6.063271405867472</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.906927745920189</v>
       </c>
       <c r="N7">
-        <v>13.98429987453123</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>24.27134350687334</v>
+        <v>14.77730360769555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.06312069890149</v>
+        <v>12.83520034309484</v>
       </c>
       <c r="C8">
-        <v>10.64915383578803</v>
+        <v>8.562361926169682</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.921177229224358</v>
+        <v>8.397886745519219</v>
       </c>
       <c r="F8">
-        <v>34.77749429830935</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.109840510132999</v>
+        <v>20.62723369998846</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9.111879492543459</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.722399059066684</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.09025392497403</v>
+        <v>10.9282713105891</v>
       </c>
       <c r="L8">
-        <v>7.516125116199929</v>
+        <v>6.163160907096691</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.346728814060892</v>
       </c>
       <c r="N8">
-        <v>13.64936024392422</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>24.95201584298383</v>
+        <v>14.44128389918765</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.27023869076417</v>
+        <v>14.81510112069364</v>
       </c>
       <c r="C9">
-        <v>12.27980652423427</v>
+        <v>8.39400486682815</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.028207274870379</v>
+        <v>8.333444396022575</v>
       </c>
       <c r="F9">
-        <v>37.44525278957938</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.087303026959892</v>
+        <v>19.88899959838393</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.774939133048894</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.515347598580047</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.93814993909529</v>
+        <v>12.17876220720964</v>
       </c>
       <c r="L9">
-        <v>8.03360017770709</v>
+        <v>6.374604297288513</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.1730818883786</v>
       </c>
       <c r="N9">
-        <v>13.0159697918135</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>26.4455346569141</v>
+        <v>13.86455456423257</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.52906104208786</v>
+        <v>16.1194043482436</v>
       </c>
       <c r="C10">
-        <v>13.38374385669495</v>
+        <v>8.282731460618786</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.116430302232766</v>
+        <v>8.311971344016511</v>
       </c>
       <c r="F10">
-        <v>39.473829219626</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.071246278141616</v>
+        <v>19.49250705918473</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.5497577216331</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.365405692939778</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>21.86508329511269</v>
+        <v>13.02039937702051</v>
       </c>
       <c r="L10">
-        <v>8.413215764531218</v>
+        <v>6.538619889488364</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.75255953691479</v>
       </c>
       <c r="N10">
-        <v>12.56276844379658</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27.64314134866827</v>
+        <v>13.49689286941198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.56889154165048</v>
+        <v>16.68063883681426</v>
       </c>
       <c r="C11">
-        <v>13.86670693677217</v>
+        <v>8.234876762097764</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.158743672062267</v>
+        <v>8.308232777466792</v>
       </c>
       <c r="F11">
-        <v>40.41068267099654</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.064016063424611</v>
+        <v>19.34910772863323</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.452510975315295</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.297337914905887</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.70430853104456</v>
+        <v>13.38605684822948</v>
       </c>
       <c r="L11">
-        <v>8.585318530426376</v>
+        <v>6.614936629013751</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.00922125975817</v>
       </c>
       <c r="N11">
-        <v>12.35876345769796</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>28.21070595383858</v>
+        <v>13.34333273159153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.956555648847</v>
+        <v>16.88859100229314</v>
       </c>
       <c r="C12">
-        <v>14.04694444573873</v>
+        <v>8.217159650854665</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.175089717107349</v>
+        <v>8.307718308817167</v>
       </c>
       <c r="F12">
-        <v>40.76744716467814</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.061285604808606</v>
+        <v>19.30059168740273</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.416466068862061</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.271552466422619</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.01691903228073</v>
+        <v>13.52202037307343</v>
       </c>
       <c r="L12">
-        <v>8.650375170892184</v>
+        <v>6.64406575295957</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.10534858181308</v>
       </c>
       <c r="N12">
-        <v>12.28178446287577</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>28.42900352777977</v>
+        <v>13.28729786515744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.87333336632318</v>
+        <v>16.84400759925605</v>
       </c>
       <c r="C13">
-        <v>14.00824294680167</v>
+        <v>8.220957243194476</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.171554774381102</v>
+        <v>8.307788479312158</v>
       </c>
       <c r="F13">
-        <v>40.69052242442998</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.061873380363912</v>
+        <v>19.31077543100468</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.4241936859842</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.277106764028883</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.94982027514173</v>
+        <v>13.49284987912003</v>
       </c>
       <c r="L13">
-        <v>8.636369575472841</v>
+        <v>6.637782305909075</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.0846941498</v>
       </c>
       <c r="N13">
-        <v>12.29835169851201</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>28.38183733684788</v>
+        <v>13.29926941227567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.60090600767855</v>
+        <v>16.69783864089817</v>
       </c>
       <c r="C14">
-        <v>13.88158758596399</v>
+        <v>8.233411017278708</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.160081939669608</v>
+        <v>8.308172193004726</v>
       </c>
       <c r="F14">
-        <v>40.43999377792217</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.06379129681197</v>
+        <v>19.34499755203217</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.449529688266599</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.295216906784108</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.7301299955019</v>
+        <v>13.3972929457744</v>
       </c>
       <c r="L14">
-        <v>8.590673230586649</v>
+        <v>6.617328585296549</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.01715139721699</v>
       </c>
       <c r="N14">
-        <v>12.35242508362539</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>28.22859715590382</v>
+        <v>13.33867942722554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.43324795614958</v>
+        <v>16.60771134761641</v>
       </c>
       <c r="C15">
-        <v>13.80366605951892</v>
+        <v>8.241092198945887</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.153096855842326</v>
+        <v>8.308525615504815</v>
       </c>
       <c r="F15">
-        <v>40.28679829227359</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.064966947864586</v>
+        <v>19.36672744234395</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.465151434401509</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.306307692271291</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.59489378941922</v>
+        <v>13.33843490111633</v>
       </c>
       <c r="L15">
-        <v>8.56266715527174</v>
+        <v>6.604829539558349</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.97563904087147</v>
       </c>
       <c r="N15">
-        <v>12.38558108701944</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>28.1351758211182</v>
+        <v>13.36309924747582</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.46024246762166</v>
+        <v>16.08208387547755</v>
       </c>
       <c r="C16">
-        <v>13.35180365635194</v>
+        <v>8.285915077929779</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.113709657826711</v>
+        <v>8.312339917996111</v>
       </c>
       <c r="F16">
-        <v>39.41288324100521</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.071720015856362</v>
+        <v>19.50266212580453</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.556220259191969</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.369854432341894</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.80950180721</v>
+        <v>12.99615388936678</v>
       </c>
       <c r="L16">
-        <v>8.401953851266326</v>
+        <v>6.533665385215648</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.7356404382332</v>
       </c>
       <c r="N16">
-        <v>12.57614090200108</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>27.60651568820311</v>
+        <v>13.50721603360967</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.85228306962185</v>
+        <v>15.75143546632244</v>
       </c>
       <c r="C17">
-        <v>13.06975337971588</v>
+        <v>8.314125159412677</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.090111437439658</v>
+        <v>8.316248464610181</v>
       </c>
       <c r="F17">
-        <v>38.88033025816128</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.075879618019358</v>
+        <v>19.59584945478714</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.613439991387954</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.408854117522683</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.31824961793028</v>
+        <v>12.78174503932247</v>
       </c>
       <c r="L17">
-        <v>8.303187057041708</v>
+        <v>6.490434049296935</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.58657979222193</v>
       </c>
       <c r="N17">
-        <v>12.69356951605593</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>27.28809364553911</v>
+        <v>13.59923281957635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.51657827828726</v>
+        <v>15.55823134724519</v>
       </c>
       <c r="C18">
-        <v>12.90570834095561</v>
+        <v>8.330610570817557</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.076742929081964</v>
+        <v>8.319062035448828</v>
       </c>
       <c r="F18">
-        <v>38.5753399812868</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.078279293979937</v>
+        <v>19.65289823608736</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.646837414136209</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.431300992283291</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.03216706577865</v>
+        <v>12.65680417422504</v>
       </c>
       <c r="L18">
-        <v>8.246325192437263</v>
+        <v>6.465729952678831</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.50019357654593</v>
       </c>
       <c r="N18">
-        <v>12.76131674551451</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>27.10708138491751</v>
+        <v>13.6534374329669</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.40509420567519</v>
+        <v>15.49229517865991</v>
       </c>
       <c r="C19">
-        <v>12.84985018490487</v>
+        <v>8.336236653782656</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.072251458354685</v>
+        <v>8.32011074510905</v>
       </c>
       <c r="F19">
-        <v>38.47230373835784</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.079093108219306</v>
+        <v>19.67279252480301</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.658227739192563</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.438904610779165</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.93469328394809</v>
+        <v>12.61422437560847</v>
       </c>
       <c r="L19">
-        <v>8.227064558478064</v>
+        <v>6.457393774718994</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.47083515321935</v>
       </c>
       <c r="N19">
-        <v>12.78429120759052</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>27.0461579452774</v>
+        <v>13.67200564706108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.91742610279398</v>
+        <v>15.78694622575475</v>
       </c>
       <c r="C20">
-        <v>13.09996540758776</v>
+        <v>8.311095219963246</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.092602274414552</v>
+        <v>8.315773621269694</v>
       </c>
       <c r="F20">
-        <v>38.93688512623913</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.075436099857813</v>
+        <v>19.58556911549758</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.607298306610636</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.404701160266749</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.3709080336832</v>
+        <v>12.80473697867487</v>
       </c>
       <c r="L20">
-        <v>8.31370676731569</v>
+        <v>6.495019505949412</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.6025153858138</v>
       </c>
       <c r="N20">
-        <v>12.68104805217792</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>27.32176854673607</v>
+        <v>13.5893040947641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.68108848546925</v>
+        <v>16.74089584344948</v>
       </c>
       <c r="C21">
-        <v>13.91886026895192</v>
+        <v>8.229742007338176</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.163442942467752</v>
+        <v>8.308034754030286</v>
       </c>
       <c r="F21">
-        <v>40.51352577784609</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.063227782758689</v>
+        <v>19.33478479735009</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.44206641739469</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.289898035186541</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.79479753740849</v>
+        <v>13.42542844859502</v>
       </c>
       <c r="L21">
-        <v>8.604098679522647</v>
+        <v>6.623330228984623</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.03701971859325</v>
       </c>
       <c r="N21">
-        <v>12.33653529661573</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>28.27351503593157</v>
+        <v>13.32704510540942</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.79830690582567</v>
+        <v>17.33770952296885</v>
       </c>
       <c r="C22">
-        <v>14.43867329866594</v>
+        <v>8.178933979843221</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.211629207857453</v>
+        <v>8.308246088555228</v>
       </c>
       <c r="F22">
-        <v>41.55563010351144</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.055290721526048</v>
+        <v>19.20484130225666</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.338645447290178</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.214795089457751</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.69526369003794</v>
+        <v>13.81648945348727</v>
       </c>
       <c r="L22">
-        <v>8.793208080485984</v>
+        <v>6.708520267313169</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.32060796354277</v>
       </c>
       <c r="N22">
-        <v>12.11295241983471</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>28.9152653342078</v>
+        <v>13.16805102349113</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.20520427739238</v>
+        <v>17.02160323569917</v>
       </c>
       <c r="C23">
-        <v>14.16260474682786</v>
+        <v>8.205832679433771</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.185734966494975</v>
+        <v>8.307639827148668</v>
       </c>
       <c r="F23">
-        <v>40.99836342672983</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.059524204928826</v>
+        <v>19.2709267190177</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.39341271525381</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.254896298739991</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.21735878083774</v>
+        <v>13.60911563783608</v>
       </c>
       <c r="L23">
-        <v>8.692346979280048</v>
+        <v>6.662935938147303</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.16711541210115</v>
       </c>
       <c r="N23">
-        <v>12.23215068417719</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>28.57090554045009</v>
+        <v>13.25172140712188</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.8879882590761</v>
+        <v>15.77090150126297</v>
       </c>
       <c r="C24">
-        <v>13.08631244693936</v>
+        <v>8.31246422427434</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.091475549654692</v>
+        <v>8.315986536024941</v>
       </c>
       <c r="F24">
-        <v>38.91131298785238</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.075636588437998</v>
+        <v>19.59020607109433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.610073404201</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.406578630785464</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.34711256253176</v>
+        <v>12.79434753588849</v>
       </c>
       <c r="L24">
-        <v>8.308951051559534</v>
+        <v>6.492945952049828</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.59531304572641</v>
       </c>
       <c r="N24">
-        <v>12.6867082682329</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>27.30653773695564</v>
+        <v>13.59378882376366</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.42952907641934</v>
+        <v>14.30605347824279</v>
       </c>
       <c r="C25">
-        <v>11.85555193269498</v>
+        <v>8.437390891661625</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.997597644042243</v>
+        <v>8.346472338026162</v>
       </c>
       <c r="F25">
-        <v>36.71107345945755</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.093301160002834</v>
+        <v>20.06479825086648</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.862264200541061</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.570874721305295</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.1942910452031</v>
+        <v>11.85380809350131</v>
       </c>
       <c r="L25">
-        <v>7.893528125866929</v>
+        <v>6.315819930207097</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.95402408013714</v>
       </c>
       <c r="N25">
-        <v>13.18502790432686</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>26.02415554202994</v>
+        <v>14.01120258141144</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12632520526155</v>
+        <v>11.20253495330645</v>
       </c>
       <c r="C2">
-        <v>8.537686783153978</v>
+        <v>11.9335494769093</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.386140133326345</v>
+        <v>13.68832009907383</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>20.51016499597269</v>
+        <v>31.38951654343337</v>
       </c>
       <c r="H2">
-        <v>9.062842761502001</v>
+        <v>15.15826671466092</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.10972256556474</v>
+        <v>8.028348091289596</v>
       </c>
       <c r="L2">
-        <v>6.191308017698824</v>
+        <v>9.913115098108733</v>
       </c>
       <c r="M2">
-        <v>9.463687521380303</v>
+        <v>13.48900533334152</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.35560579938896</v>
+        <v>23.38049157789171</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.26295269222928</v>
+        <v>10.9369276873992</v>
       </c>
       <c r="C3">
-        <v>8.610754592490251</v>
+        <v>11.96382260459514</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.423141990009412</v>
+        <v>13.72950882435556</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>20.86450624571726</v>
+        <v>31.58621115992892</v>
       </c>
       <c r="H3">
-        <v>9.207657346080589</v>
+        <v>15.21777881630419</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.57442258886772</v>
+        <v>7.775666420954377</v>
       </c>
       <c r="L3">
-        <v>6.110877191401041</v>
+        <v>9.919515703729276</v>
       </c>
       <c r="M3">
-        <v>9.121904166086466</v>
+        <v>13.44434674713366</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.61017840196442</v>
+        <v>23.49471621886505</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.701111829665</v>
+        <v>10.77176071625128</v>
       </c>
       <c r="C4">
-        <v>8.658106395210114</v>
+        <v>11.98366052179299</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.450648061564435</v>
+        <v>13.75692596179812</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>21.10576481672635</v>
+        <v>31.71566761722013</v>
       </c>
       <c r="H4">
-        <v>9.300841540094217</v>
+        <v>15.25646425507106</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.23097203019484</v>
+        <v>7.615028896840967</v>
       </c>
       <c r="L4">
-        <v>6.063526706430006</v>
+        <v>9.924735486835157</v>
       </c>
       <c r="M4">
-        <v>8.908111047904935</v>
+        <v>13.41844692531842</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.77636743860471</v>
+        <v>23.56924385787204</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46414933757339</v>
+        <v>10.70402323515211</v>
       </c>
       <c r="C5">
-        <v>8.678024623106303</v>
+        <v>11.99205967908321</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.463030752432289</v>
+        <v>13.76863377133275</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>21.2097312005921</v>
+        <v>31.77060199380627</v>
       </c>
       <c r="H5">
-        <v>9.339872906799007</v>
+        <v>15.27276908272756</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.08739725155003</v>
+        <v>7.548251799935884</v>
       </c>
       <c r="L5">
-        <v>6.044754817321699</v>
+        <v>9.927187572936726</v>
       </c>
       <c r="M5">
-        <v>8.82012347347926</v>
+        <v>13.40828182978879</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.84649967655903</v>
+        <v>23.6007198270683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42431743007762</v>
+        <v>10.69275227611341</v>
       </c>
       <c r="C6">
-        <v>8.681369497326195</v>
+        <v>11.99347340130679</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.465156912976468</v>
+        <v>13.77061016969118</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>21.22732756012779</v>
+        <v>31.77985534221793</v>
       </c>
       <c r="H6">
-        <v>9.346417534921732</v>
+        <v>15.27550913956632</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.06334165341565</v>
+        <v>7.537086036944554</v>
       </c>
       <c r="L6">
-        <v>6.041669732865532</v>
+        <v>9.927614385969882</v>
       </c>
       <c r="M6">
-        <v>8.805464832812589</v>
+        <v>13.40661763046264</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.85828849773837</v>
+        <v>23.60601316770303</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.69794853146624</v>
+        <v>10.77084880215648</v>
       </c>
       <c r="C7">
-        <v>8.658372505493144</v>
+        <v>11.98377251922572</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.450810345640642</v>
+        <v>13.75708169049378</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>21.10714444876449</v>
+        <v>31.7163996608098</v>
       </c>
       <c r="H7">
-        <v>9.301363665224883</v>
+        <v>15.25668195926603</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.22905022611283</v>
+        <v>7.614133556247607</v>
       </c>
       <c r="L7">
-        <v>6.063271405867472</v>
+        <v>9.924767239864725</v>
       </c>
       <c r="M7">
-        <v>8.906927745920189</v>
+        <v>13.41830825020242</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.77730360769555</v>
+        <v>23.56966387740312</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.83520034309484</v>
+        <v>11.11144048216358</v>
       </c>
       <c r="C8">
-        <v>8.562361926169682</v>
+        <v>11.94372861375906</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.397886745519219</v>
+        <v>13.70208063407878</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>20.62723369998846</v>
+        <v>31.45553173111302</v>
       </c>
       <c r="H8">
-        <v>9.111879492543459</v>
+        <v>15.17834186899038</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.9282713105891</v>
+        <v>7.942399678535267</v>
       </c>
       <c r="L8">
-        <v>6.163160907096691</v>
+        <v>9.915054742431883</v>
       </c>
       <c r="M8">
-        <v>9.346728814060892</v>
+        <v>13.47329565632551</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.44128389918765</v>
+        <v>23.41896479249364</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.81510112069364</v>
+        <v>11.75894481751098</v>
       </c>
       <c r="C9">
-        <v>8.39400486682815</v>
+        <v>11.8750903180181</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.333444396022575</v>
+        <v>13.61109081590604</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>19.88899959838393</v>
+        <v>31.01307086599556</v>
       </c>
       <c r="H9">
-        <v>8.774939133048894</v>
+        <v>15.04169485843252</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.17876220720964</v>
+        <v>8.540044650353314</v>
       </c>
       <c r="L9">
-        <v>6.374604297288513</v>
+        <v>9.906211923414237</v>
       </c>
       <c r="M9">
-        <v>10.1730818883786</v>
+        <v>13.59287637586853</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.86455456423257</v>
+        <v>23.15827389377937</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.1194043482436</v>
+        <v>12.21740382048131</v>
       </c>
       <c r="C10">
-        <v>8.282731460618786</v>
+        <v>11.83064668671011</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.311971344016511</v>
+        <v>13.55450852302315</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>19.49250705918473</v>
+        <v>30.73038094280168</v>
       </c>
       <c r="H10">
-        <v>8.5497577216331</v>
+        <v>14.9515941922274</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.02039937702051</v>
+        <v>8.948072620581401</v>
       </c>
       <c r="L10">
-        <v>6.538619889488364</v>
+        <v>9.905891769086841</v>
       </c>
       <c r="M10">
-        <v>10.75255953691479</v>
+        <v>13.68745475212214</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.49689286941198</v>
+        <v>22.98793699694395</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.68063883681426</v>
+        <v>12.42130471564595</v>
       </c>
       <c r="C11">
-        <v>8.234876762097764</v>
+        <v>11.81171868955428</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.308232777466792</v>
+        <v>13.53099408713453</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>19.34910772863323</v>
+        <v>30.61104042299435</v>
       </c>
       <c r="H11">
-        <v>8.452510975315295</v>
+        <v>14.91282859747461</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.38605684822948</v>
+        <v>9.12643158587275</v>
       </c>
       <c r="L11">
-        <v>6.614936629013751</v>
+        <v>9.907076672278494</v>
       </c>
       <c r="M11">
-        <v>11.00922125975817</v>
+        <v>13.73184065211609</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.34333273159153</v>
+        <v>22.91504050900808</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88859100229314</v>
+        <v>12.49777848460114</v>
       </c>
       <c r="C12">
-        <v>8.217159650854665</v>
+        <v>11.80473591083228</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.307718308817167</v>
+        <v>13.52240950188967</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>19.30059168740273</v>
+        <v>30.56718564701397</v>
       </c>
       <c r="H12">
-        <v>8.416466068862061</v>
+        <v>14.89846772066513</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.52202037307343</v>
+        <v>9.192891414218387</v>
       </c>
       <c r="L12">
-        <v>6.64406575295957</v>
+        <v>9.907715652810541</v>
       </c>
       <c r="M12">
-        <v>11.10534858181308</v>
+        <v>13.7488353444979</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.28729786515744</v>
+        <v>22.88809627367735</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84400759925605</v>
+        <v>12.48134241284153</v>
       </c>
       <c r="C13">
-        <v>8.220957243194476</v>
+        <v>11.80623156577937</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.307788479312158</v>
+        <v>13.5242441243122</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>19.31077543100468</v>
+        <v>30.57657100523181</v>
       </c>
       <c r="H13">
-        <v>8.4241936859842</v>
+        <v>14.90154642342528</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.49284987912003</v>
+        <v>9.17862672260912</v>
       </c>
       <c r="L13">
-        <v>6.637782305909075</v>
+        <v>9.907569591496051</v>
       </c>
       <c r="M13">
-        <v>11.0846941498</v>
+        <v>13.74516707659131</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.29926941227567</v>
+        <v>22.8938698395958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.69783864089817</v>
+        <v>12.42761145077871</v>
       </c>
       <c r="C14">
-        <v>8.233411017278708</v>
+        <v>11.8111405110548</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.308172193004726</v>
+        <v>13.53028141934939</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>19.34499755203217</v>
+        <v>30.60740563717265</v>
       </c>
       <c r="H14">
-        <v>8.449529688266599</v>
+        <v>14.9116407337154</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.3972929457744</v>
+        <v>9.131921136939038</v>
       </c>
       <c r="L14">
-        <v>6.617328585296549</v>
+        <v>9.90712543429524</v>
       </c>
       <c r="M14">
-        <v>11.01715139721699</v>
+        <v>13.73323512659069</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.33867942722554</v>
+        <v>22.91281056156218</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.60771134761641</v>
+        <v>12.394601459469</v>
       </c>
       <c r="C15">
-        <v>8.241092198945887</v>
+        <v>11.81417143597302</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.308525615504815</v>
+        <v>13.5340210823844</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>19.36672744234395</v>
+        <v>30.6264670167199</v>
       </c>
       <c r="H15">
-        <v>8.465151434401509</v>
+        <v>14.91786528985822</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.33843490111633</v>
+        <v>9.103170821128179</v>
       </c>
       <c r="L15">
-        <v>6.604829539558349</v>
+        <v>9.906878123331696</v>
       </c>
       <c r="M15">
-        <v>10.97563904087147</v>
+        <v>13.72595050443886</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.36309924747582</v>
+        <v>22.92449826257644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08208387547755</v>
+        <v>12.20397866741067</v>
       </c>
       <c r="C16">
-        <v>8.285915077929779</v>
+        <v>11.83190957470238</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.312339917996111</v>
+        <v>13.55609000953078</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>19.50266212580453</v>
+        <v>30.73836688519119</v>
       </c>
       <c r="H16">
-        <v>8.556220259191969</v>
+        <v>14.95417226359314</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.99615388936678</v>
+        <v>8.936267137370521</v>
       </c>
       <c r="L16">
-        <v>6.533665385215648</v>
+        <v>9.905841019032803</v>
       </c>
       <c r="M16">
-        <v>10.7356404382332</v>
+        <v>13.68458065825347</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.50721603360967</v>
+        <v>22.99279332394516</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.75143546632244</v>
+        <v>12.08579424309042</v>
       </c>
       <c r="C17">
-        <v>8.314125159412677</v>
+        <v>11.84312122176476</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.316248464610181</v>
+        <v>13.57019838862526</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>19.59584945478714</v>
+        <v>30.8093887424535</v>
       </c>
       <c r="H17">
-        <v>8.613439991387954</v>
+        <v>14.97701395943404</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.78174503932247</v>
+        <v>8.831990760543539</v>
       </c>
       <c r="L17">
-        <v>6.490434049296935</v>
+        <v>9.905544852236886</v>
       </c>
       <c r="M17">
-        <v>10.58657979222193</v>
+        <v>13.6595439714322</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.59923281957635</v>
+        <v>23.03586585191917</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.55823134724519</v>
+        <v>12.01738341108643</v>
       </c>
       <c r="C18">
-        <v>8.330610570817557</v>
+        <v>11.84969128673668</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.319062035448828</v>
+        <v>13.57852260494011</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>19.65289823608736</v>
+        <v>30.85110954992011</v>
       </c>
       <c r="H18">
-        <v>8.646837414136209</v>
+        <v>14.99036104905541</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.65680417422504</v>
+        <v>8.771332815872174</v>
       </c>
       <c r="L18">
-        <v>6.465729952678831</v>
+        <v>9.905499809382246</v>
       </c>
       <c r="M18">
-        <v>10.50019357654593</v>
+        <v>13.64527226366374</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.6534374329669</v>
+        <v>23.06107212083004</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.49229517865991</v>
+        <v>11.99414830848001</v>
       </c>
       <c r="C19">
-        <v>8.336236653782656</v>
+        <v>11.85193667075782</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.32011074510905</v>
+        <v>13.58137701912612</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>19.67279252480301</v>
+        <v>30.86538490399938</v>
       </c>
       <c r="H19">
-        <v>8.658227739192563</v>
+        <v>14.99491608641479</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.61422437560847</v>
+        <v>8.750679347322988</v>
       </c>
       <c r="L19">
-        <v>6.457393774718994</v>
+        <v>9.905506110464337</v>
       </c>
       <c r="M19">
-        <v>10.47083515321935</v>
+        <v>13.64046249177229</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.67200564706108</v>
+        <v>23.06968074449176</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.78694622575475</v>
+        <v>12.09842064590777</v>
       </c>
       <c r="C20">
-        <v>8.311095219963246</v>
+        <v>11.84191516046772</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.315773621269694</v>
+        <v>13.56867485136837</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>19.58556911549758</v>
+        <v>30.80173816656736</v>
       </c>
       <c r="H20">
-        <v>8.607298306610636</v>
+        <v>14.97456078047211</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.80473697867487</v>
+        <v>8.843161919196058</v>
       </c>
       <c r="L20">
-        <v>6.495019505949412</v>
+        <v>9.905563418503954</v>
       </c>
       <c r="M20">
-        <v>10.6025153858138</v>
+        <v>13.66219591131949</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.5893040947641</v>
+        <v>23.03123598857151</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.74089584344948</v>
+        <v>12.44341412368214</v>
       </c>
       <c r="C21">
-        <v>8.229742007338176</v>
+        <v>11.80969362302993</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.308034754030286</v>
+        <v>13.52849944085316</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>19.33478479735009</v>
+        <v>30.59831242857193</v>
       </c>
       <c r="H21">
-        <v>8.44206641739469</v>
+        <v>14.90866714275641</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.42542844859502</v>
+        <v>9.145669310599478</v>
       </c>
       <c r="L21">
-        <v>6.623330228984623</v>
+        <v>9.907250738515931</v>
       </c>
       <c r="M21">
-        <v>11.03701971859325</v>
+        <v>13.73673483582593</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.32704510540942</v>
+        <v>22.90722929800719</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33770952296885</v>
+        <v>12.6645509343237</v>
       </c>
       <c r="C22">
-        <v>8.178933979843221</v>
+        <v>11.78971211672626</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.308246088555228</v>
+        <v>13.50410657201031</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>19.20484130225666</v>
+        <v>30.47315715311079</v>
       </c>
       <c r="H22">
-        <v>8.338645447290178</v>
+        <v>14.86745983399063</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.81648945348727</v>
+        <v>9.337061064636915</v>
       </c>
       <c r="L22">
-        <v>6.708520267313169</v>
+        <v>9.90946207763734</v>
       </c>
       <c r="M22">
-        <v>11.32060796354277</v>
+        <v>13.78653426937489</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.16805102349113</v>
+        <v>22.83003124318533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.02160323569917</v>
+        <v>12.54694445959632</v>
       </c>
       <c r="C23">
-        <v>8.205832679433771</v>
+        <v>11.80027826303169</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.307639827148668</v>
+        <v>13.5169549942773</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>19.2709267190177</v>
+        <v>30.53923966246969</v>
       </c>
       <c r="H23">
-        <v>8.39341271525381</v>
+        <v>14.88928315597429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.60911563783608</v>
+        <v>9.235500717486191</v>
       </c>
       <c r="L23">
-        <v>6.662935938147303</v>
+        <v>9.908180774913841</v>
       </c>
       <c r="M23">
-        <v>11.16711541210115</v>
+        <v>13.75985926002963</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.25172140712188</v>
+        <v>22.87088125248163</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.77090150126297</v>
+        <v>12.0927136923061</v>
       </c>
       <c r="C24">
-        <v>8.31246422427434</v>
+        <v>11.84246003343204</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.315986536024941</v>
+        <v>13.56936297870674</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>19.59020607109433</v>
+        <v>30.80519422196328</v>
       </c>
       <c r="H24">
-        <v>8.610073404201</v>
+        <v>14.97566919262472</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.79434753588849</v>
+        <v>8.838113640961765</v>
       </c>
       <c r="L24">
-        <v>6.492945952049828</v>
+        <v>9.905554634550228</v>
       </c>
       <c r="M24">
-        <v>10.59531304572641</v>
+        <v>13.66099658791667</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.59378882376366</v>
+        <v>23.0333277689404</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.30605347824279</v>
+        <v>11.58648013556261</v>
       </c>
       <c r="C25">
-        <v>8.437390891661625</v>
+        <v>11.89260471120577</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.346472338026162</v>
+        <v>13.63390171712309</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>20.06479825086648</v>
+        <v>31.12534419097798</v>
       </c>
       <c r="H25">
-        <v>8.862264200541061</v>
+        <v>15.07684979523311</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.85380809350131</v>
+        <v>8.383627459912448</v>
       </c>
       <c r="L25">
-        <v>6.315819930207097</v>
+        <v>9.907516014282418</v>
       </c>
       <c r="M25">
-        <v>9.95402408013714</v>
+        <v>13.55931294853462</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.01120258141144</v>
+        <v>23.22507331456106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.20253495330645</v>
+        <v>13.12632520526151</v>
       </c>
       <c r="C2">
-        <v>11.9335494769093</v>
+        <v>8.537686783153962</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.68832009907383</v>
+        <v>8.386140133326405</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>31.38951654343337</v>
+        <v>20.51016499597286</v>
       </c>
       <c r="H2">
-        <v>15.15826671466092</v>
+        <v>9.062842761502075</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.028348091289596</v>
+        <v>11.10972256556472</v>
       </c>
       <c r="L2">
-        <v>9.913115098108733</v>
+        <v>6.191308017698777</v>
       </c>
       <c r="M2">
-        <v>13.48900533334152</v>
+        <v>9.463687521380317</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.38049157789171</v>
+        <v>14.35560579938904</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.9369276873992</v>
+        <v>12.26295269222932</v>
       </c>
       <c r="C3">
-        <v>11.96382260459514</v>
+        <v>8.610754592490116</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.72950882435556</v>
+        <v>8.423141990009352</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>31.58621115992892</v>
+        <v>20.86450624571717</v>
       </c>
       <c r="H3">
-        <v>15.21777881630419</v>
+        <v>9.207657346080465</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.775666420954377</v>
+        <v>10.57442258886774</v>
       </c>
       <c r="L3">
-        <v>9.919515703729276</v>
+        <v>6.110877191401084</v>
       </c>
       <c r="M3">
-        <v>13.44434674713366</v>
+        <v>9.121904166086429</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.49471621886505</v>
+        <v>14.61017840196424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.77176071625128</v>
+        <v>11.70111182966498</v>
       </c>
       <c r="C4">
-        <v>11.98366052179299</v>
+        <v>8.658106395210245</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.75692596179812</v>
+        <v>8.450648061564612</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>31.71566761722013</v>
+        <v>21.10576481672637</v>
       </c>
       <c r="H4">
-        <v>15.25646425507106</v>
+        <v>9.300841540094217</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.615028896840967</v>
+        <v>10.23097203019485</v>
       </c>
       <c r="L4">
-        <v>9.924735486835157</v>
+        <v>6.063526706430107</v>
       </c>
       <c r="M4">
-        <v>13.41844692531842</v>
+        <v>8.908111047904988</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.56924385787204</v>
+        <v>14.77636743860471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.70402323515211</v>
+        <v>11.46414933757335</v>
       </c>
       <c r="C5">
-        <v>11.99205967908321</v>
+        <v>8.678024623106309</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.76863377133275</v>
+        <v>8.463030752432227</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>31.77060199380627</v>
+        <v>21.20973120059196</v>
       </c>
       <c r="H5">
-        <v>15.27276908272756</v>
+        <v>9.339872906799002</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.548251799935884</v>
+        <v>10.08739725155001</v>
       </c>
       <c r="L5">
-        <v>9.927187572936726</v>
+        <v>6.044754817321673</v>
       </c>
       <c r="M5">
-        <v>13.40828182978879</v>
+        <v>8.82012347347926</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.6007198270683</v>
+        <v>14.84649967655899</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.69275227611341</v>
+        <v>11.42431743007763</v>
       </c>
       <c r="C6">
-        <v>11.99347340130679</v>
+        <v>8.681369497326322</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.77061016969118</v>
+        <v>8.465156912976529</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>31.77985534221793</v>
+        <v>21.22732756012777</v>
       </c>
       <c r="H6">
-        <v>15.27550913956632</v>
+        <v>9.346417534921734</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.537086036944554</v>
+        <v>10.06334165341569</v>
       </c>
       <c r="L6">
-        <v>9.927614385969882</v>
+        <v>6.041669732865531</v>
       </c>
       <c r="M6">
-        <v>13.40661763046264</v>
+        <v>8.805464832812584</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.60601316770303</v>
+        <v>14.85828849773837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77084880215648</v>
+        <v>11.69794853146625</v>
       </c>
       <c r="C7">
-        <v>11.98377251922572</v>
+        <v>8.65837250549315</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.75708169049378</v>
+        <v>8.450810345640642</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.7163996608098</v>
+        <v>21.10714444876428</v>
       </c>
       <c r="H7">
-        <v>15.25668195926603</v>
+        <v>9.301363665224818</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.614133556247607</v>
+        <v>10.22905022611283</v>
       </c>
       <c r="L7">
-        <v>9.924767239864725</v>
+        <v>6.063271405867448</v>
       </c>
       <c r="M7">
-        <v>13.41830825020242</v>
+        <v>8.906927745920195</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.56966387740312</v>
+        <v>14.7773036076954</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.11144048216358</v>
+        <v>12.83520034309482</v>
       </c>
       <c r="C8">
-        <v>11.94372861375906</v>
+        <v>8.562361926169558</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.70208063407878</v>
+        <v>8.397886745519219</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>31.45553173111302</v>
+        <v>20.62723369998819</v>
       </c>
       <c r="H8">
-        <v>15.17834186899038</v>
+        <v>9.111879492543453</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.942399678535267</v>
+        <v>10.92827131058908</v>
       </c>
       <c r="L8">
-        <v>9.915054742431883</v>
+        <v>6.163160907096669</v>
       </c>
       <c r="M8">
-        <v>13.47329565632551</v>
+        <v>9.346728814060892</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.41896479249364</v>
+        <v>14.4412838991876</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.75894481751098</v>
+        <v>14.81510112069362</v>
       </c>
       <c r="C9">
-        <v>11.8750903180181</v>
+        <v>8.39400486682816</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.61109081590604</v>
+        <v>8.333444396022522</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>31.01307086599556</v>
+        <v>19.88899959838377</v>
       </c>
       <c r="H9">
-        <v>15.04169485843252</v>
+        <v>8.774939133048884</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.540044650353314</v>
+        <v>12.17876220720967</v>
       </c>
       <c r="L9">
-        <v>9.906211923414237</v>
+        <v>6.374604297288497</v>
       </c>
       <c r="M9">
-        <v>13.59287637586853</v>
+        <v>10.17308188837859</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.15827389377937</v>
+        <v>13.86455456423248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.21740382048131</v>
+        <v>16.11940434824363</v>
       </c>
       <c r="C10">
-        <v>11.83064668671011</v>
+        <v>8.282731460618804</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.55450852302315</v>
+        <v>8.311971344016513</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>30.73038094280168</v>
+        <v>19.49250705918454</v>
       </c>
       <c r="H10">
-        <v>14.9515941922274</v>
+        <v>8.549757721633092</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.948072620581401</v>
+        <v>13.02039937702055</v>
       </c>
       <c r="L10">
-        <v>9.905891769086841</v>
+        <v>6.538619889488335</v>
       </c>
       <c r="M10">
-        <v>13.68745475212214</v>
+        <v>10.75255953691477</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.98793699694395</v>
+        <v>13.49689286941189</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.42130471564595</v>
+        <v>16.68063883681428</v>
       </c>
       <c r="C11">
-        <v>11.81171868955428</v>
+        <v>8.234876762098152</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.53099408713453</v>
+        <v>8.3082327774669</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>30.61104042299435</v>
+        <v>19.34910772863304</v>
       </c>
       <c r="H11">
-        <v>14.91282859747461</v>
+        <v>8.452510975315295</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.12643158587275</v>
+        <v>13.38605684822958</v>
       </c>
       <c r="L11">
-        <v>9.907076672278494</v>
+        <v>6.614936629013757</v>
       </c>
       <c r="M11">
-        <v>13.73184065211609</v>
+        <v>11.00922125975815</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.91504050900808</v>
+        <v>13.34333273159142</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.49777848460114</v>
+        <v>16.88859100229322</v>
       </c>
       <c r="C12">
-        <v>11.80473591083228</v>
+        <v>8.217159650854786</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.52240950188967</v>
+        <v>8.307718308817227</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>30.56718564701397</v>
+        <v>19.30059168740234</v>
       </c>
       <c r="H12">
-        <v>14.89846772066513</v>
+        <v>8.416466068861991</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.192891414218387</v>
+        <v>13.52202037307351</v>
       </c>
       <c r="L12">
-        <v>9.907715652810541</v>
+        <v>6.644065752959616</v>
       </c>
       <c r="M12">
-        <v>13.7488353444979</v>
+        <v>11.10534858181308</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.88809627367735</v>
+        <v>13.28729786515723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.48134241284153</v>
+        <v>16.84400759925606</v>
       </c>
       <c r="C13">
-        <v>11.80623156577937</v>
+        <v>8.220957243194212</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.5242441243122</v>
+        <v>8.307788479312112</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>30.57657100523181</v>
+        <v>19.31077543100452</v>
       </c>
       <c r="H13">
-        <v>14.90154642342528</v>
+        <v>8.424193685984209</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.17862672260912</v>
+        <v>13.49284987912002</v>
       </c>
       <c r="L13">
-        <v>9.907569591496051</v>
+        <v>6.637782305909079</v>
       </c>
       <c r="M13">
-        <v>13.74516707659131</v>
+        <v>11.0846941498</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.8938698395958</v>
+        <v>13.2992694122756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.42761145077871</v>
+        <v>16.69783864089822</v>
       </c>
       <c r="C14">
-        <v>11.8111405110548</v>
+        <v>8.233411017278577</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.53028141934939</v>
+        <v>8.308172193004632</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>30.60740563717265</v>
+        <v>19.3449975520319</v>
       </c>
       <c r="H14">
-        <v>14.9116407337154</v>
+        <v>8.449529688266599</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.131921136939038</v>
+        <v>13.39729294577442</v>
       </c>
       <c r="L14">
-        <v>9.90712543429524</v>
+        <v>6.617328585296516</v>
       </c>
       <c r="M14">
-        <v>13.73323512659069</v>
+        <v>11.01715139721699</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.91281056156218</v>
+        <v>13.33867942722546</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.394601459469</v>
+        <v>16.60771134761644</v>
       </c>
       <c r="C15">
-        <v>11.81417143597302</v>
+        <v>8.241092198946022</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.5340210823844</v>
+        <v>8.308525615504912</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>30.6264670167199</v>
+        <v>19.36672744234354</v>
       </c>
       <c r="H15">
-        <v>14.91786528985822</v>
+        <v>8.465151434401385</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.103170821128179</v>
+        <v>13.3384349011164</v>
       </c>
       <c r="L15">
-        <v>9.906878123331696</v>
+        <v>6.60482953955841</v>
       </c>
       <c r="M15">
-        <v>13.72595050443886</v>
+        <v>10.97563904087149</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.92449826257644</v>
+        <v>13.36309924747555</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.20397866741067</v>
+        <v>16.08208387547762</v>
       </c>
       <c r="C16">
-        <v>11.83190957470238</v>
+        <v>8.285915077929772</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.55609000953078</v>
+        <v>8.312339917996072</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>30.73836688519119</v>
+        <v>19.50266212580419</v>
       </c>
       <c r="H16">
-        <v>14.95417226359314</v>
+        <v>8.556220259191914</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.936267137370521</v>
+        <v>12.99615388936684</v>
       </c>
       <c r="L16">
-        <v>9.905841019032803</v>
+        <v>6.533665385215675</v>
       </c>
       <c r="M16">
-        <v>13.68458065825347</v>
+        <v>10.73564043823317</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.99279332394516</v>
+        <v>13.50721603360949</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.08579424309042</v>
+        <v>15.7514354663225</v>
       </c>
       <c r="C17">
-        <v>11.84312122176476</v>
+        <v>8.314125159412814</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.57019838862526</v>
+        <v>8.316248464610119</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>30.8093887424535</v>
+        <v>19.59584945478673</v>
       </c>
       <c r="H17">
-        <v>14.97701395943404</v>
+        <v>8.613439991387709</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.831990760543539</v>
+        <v>12.78174503932256</v>
       </c>
       <c r="L17">
-        <v>9.905544852236886</v>
+        <v>6.490434049296884</v>
       </c>
       <c r="M17">
-        <v>13.6595439714322</v>
+        <v>10.58657979222189</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.03586585191917</v>
+        <v>13.59923281957603</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.01738341108643</v>
+        <v>15.55823134724522</v>
       </c>
       <c r="C18">
-        <v>11.84969128673668</v>
+        <v>8.330610570817557</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.57852260494011</v>
+        <v>8.319062035448983</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>30.85110954992011</v>
+        <v>19.65289823608726</v>
       </c>
       <c r="H18">
-        <v>14.99036104905541</v>
+        <v>8.646837414136082</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.771332815872174</v>
+        <v>12.65680417422512</v>
       </c>
       <c r="L18">
-        <v>9.905499809382246</v>
+        <v>6.465729952678918</v>
       </c>
       <c r="M18">
-        <v>13.64527226366374</v>
+        <v>10.50019357654593</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.06107212083004</v>
+        <v>13.65343743296681</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.99414830848001</v>
+        <v>15.49229517865991</v>
       </c>
       <c r="C19">
-        <v>11.85193667075782</v>
+        <v>8.336236653782793</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.58137701912612</v>
+        <v>8.320110745109098</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>30.86538490399938</v>
+        <v>19.67279252480296</v>
       </c>
       <c r="H19">
-        <v>14.99491608641479</v>
+        <v>8.658227739192572</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.750679347322988</v>
+        <v>12.61422437560847</v>
       </c>
       <c r="L19">
-        <v>9.905506110464337</v>
+        <v>6.457393774719017</v>
       </c>
       <c r="M19">
-        <v>13.64046249177229</v>
+        <v>10.47083515321935</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.06968074449176</v>
+        <v>13.67200564706107</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.09842064590777</v>
+        <v>15.78694622575472</v>
       </c>
       <c r="C20">
-        <v>11.84191516046772</v>
+        <v>8.311095219962974</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.56867485136837</v>
+        <v>8.315773621269642</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>30.80173816656736</v>
+        <v>19.58556911549762</v>
       </c>
       <c r="H20">
-        <v>14.97456078047211</v>
+        <v>8.607298306610517</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.843161919196058</v>
+        <v>12.80473697867483</v>
       </c>
       <c r="L20">
-        <v>9.905563418503954</v>
+        <v>6.49501950594941</v>
       </c>
       <c r="M20">
-        <v>13.66219591131949</v>
+        <v>10.6025153858138</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.03123598857151</v>
+        <v>13.58930409476401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.44341412368214</v>
+        <v>16.74089584344948</v>
       </c>
       <c r="C21">
-        <v>11.80969362302993</v>
+        <v>8.229742007338189</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.52849944085316</v>
+        <v>8.308034754030235</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>30.59831242857193</v>
+        <v>19.33478479735004</v>
       </c>
       <c r="H21">
-        <v>14.90866714275641</v>
+        <v>8.44206641739469</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.145669310599478</v>
+        <v>13.42542844859502</v>
       </c>
       <c r="L21">
-        <v>9.907250738515931</v>
+        <v>6.623330228984605</v>
       </c>
       <c r="M21">
-        <v>13.73673483582593</v>
+        <v>11.03701971859325</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.90722929800719</v>
+        <v>13.32704510540937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.6645509343237</v>
+        <v>17.33770952296891</v>
       </c>
       <c r="C22">
-        <v>11.78971211672626</v>
+        <v>8.178933979843082</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.50410657201031</v>
+        <v>8.308246088555235</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>30.47315715311079</v>
+        <v>19.20484130225678</v>
       </c>
       <c r="H22">
-        <v>14.86745983399063</v>
+        <v>8.338645447290119</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.337061064636915</v>
+        <v>13.81648945348727</v>
       </c>
       <c r="L22">
-        <v>9.90946207763734</v>
+        <v>6.708520267313231</v>
       </c>
       <c r="M22">
-        <v>13.78653426937489</v>
+        <v>11.32060796354279</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.83003124318533</v>
+        <v>13.16805102349114</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.54694445959632</v>
+        <v>17.0216032356992</v>
       </c>
       <c r="C23">
-        <v>11.80027826303169</v>
+        <v>8.205832679433644</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.5169549942773</v>
+        <v>8.307639827148714</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>30.53923966246969</v>
+        <v>19.27092671901774</v>
       </c>
       <c r="H23">
-        <v>14.88928315597429</v>
+        <v>8.39341271525374</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.235500717486191</v>
+        <v>13.60911563783612</v>
       </c>
       <c r="L23">
-        <v>9.908180774913841</v>
+        <v>6.662935938147342</v>
       </c>
       <c r="M23">
-        <v>13.75985926002963</v>
+        <v>11.16711541210115</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.87088125248163</v>
+        <v>13.25172140712183</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.0927136923061</v>
+        <v>15.77090150126298</v>
       </c>
       <c r="C24">
-        <v>11.84246003343204</v>
+        <v>8.312464224274327</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.56936297870674</v>
+        <v>8.315986536025051</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>30.80519422196328</v>
+        <v>19.59020607109464</v>
       </c>
       <c r="H24">
-        <v>14.97566919262472</v>
+        <v>8.610073404201003</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.838113640961765</v>
+        <v>12.79434753588853</v>
       </c>
       <c r="L24">
-        <v>9.905554634550228</v>
+        <v>6.492945952049841</v>
       </c>
       <c r="M24">
-        <v>13.66099658791667</v>
+        <v>10.59531304572642</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.0333277689404</v>
+        <v>13.59378882376375</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.58648013556261</v>
+        <v>14.30605347824283</v>
       </c>
       <c r="C25">
-        <v>11.89260471120577</v>
+        <v>8.437390891661636</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.63390171712309</v>
+        <v>8.346472338026162</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>31.12534419097798</v>
+        <v>20.06479825086604</v>
       </c>
       <c r="H25">
-        <v>15.07684979523311</v>
+        <v>8.862264200540936</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.383627459912448</v>
+        <v>11.8538080935014</v>
       </c>
       <c r="L25">
-        <v>9.907516014282418</v>
+        <v>6.315819930207094</v>
       </c>
       <c r="M25">
-        <v>13.55931294853462</v>
+        <v>9.954024080137113</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.22507331456106</v>
+        <v>14.01120258141126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12632520526151</v>
+        <v>13.48990052376283</v>
       </c>
       <c r="C2">
-        <v>8.537686783153962</v>
+        <v>8.003896717455753</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.386140133326405</v>
+        <v>11.51934287270698</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>26.20758212230603</v>
       </c>
       <c r="G2">
-        <v>20.51016499597286</v>
+        <v>20.85931376221414</v>
       </c>
       <c r="H2">
-        <v>9.062842761502075</v>
+        <v>2.374683957142732</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.008446298150264</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.922980498717106</v>
       </c>
       <c r="K2">
-        <v>11.10972256556472</v>
+        <v>15.01362237563788</v>
       </c>
       <c r="L2">
-        <v>6.191308017698777</v>
+        <v>5.609953445262419</v>
       </c>
       <c r="M2">
-        <v>9.463687521380317</v>
+        <v>10.62028706336328</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.967167858543837</v>
       </c>
       <c r="O2">
-        <v>14.35560579938904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.7315535695454</v>
+      </c>
+      <c r="Q2">
+        <v>14.24654830626979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.26295269222932</v>
+        <v>12.64572668388426</v>
       </c>
       <c r="C3">
-        <v>8.610754592490116</v>
+        <v>7.940402341397923</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.423141990009352</v>
+        <v>11.18273694753372</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>25.60153169645339</v>
       </c>
       <c r="G3">
-        <v>20.86450624571717</v>
+        <v>20.72444362367973</v>
       </c>
       <c r="H3">
-        <v>9.207657346080465</v>
+        <v>2.560022214759401</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.132172204352231</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.967548202160613</v>
       </c>
       <c r="K3">
-        <v>10.57442258886774</v>
+        <v>15.07640570296913</v>
       </c>
       <c r="L3">
-        <v>6.110877191401084</v>
+        <v>5.512496319616286</v>
       </c>
       <c r="M3">
-        <v>9.121904166086429</v>
+        <v>10.05850885228623</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.642470703447087</v>
       </c>
       <c r="O3">
-        <v>14.61017840196424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.84265755156171</v>
+      </c>
+      <c r="Q3">
+        <v>14.27633157193716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.70111182966498</v>
+        <v>12.09593244090913</v>
       </c>
       <c r="C4">
-        <v>8.658106395210245</v>
+        <v>7.900488226427954</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.450648061564612</v>
+        <v>10.97080094413871</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>25.22930567368922</v>
       </c>
       <c r="G4">
-        <v>21.10576481672637</v>
+        <v>20.6506870766956</v>
       </c>
       <c r="H4">
-        <v>9.300841540094217</v>
+        <v>2.678318715289819</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.211881644141137</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.9971807587629</v>
       </c>
       <c r="K4">
-        <v>10.23097203019485</v>
+        <v>15.1183396117754</v>
       </c>
       <c r="L4">
-        <v>6.063526706430107</v>
+        <v>5.450890824628999</v>
       </c>
       <c r="M4">
-        <v>8.908111047904988</v>
+        <v>9.695993982402754</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.437990058119041</v>
       </c>
       <c r="O4">
-        <v>14.77636743860471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.91272830139516</v>
+      </c>
+      <c r="Q4">
+        <v>14.29946692367368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.46414933757335</v>
+        <v>11.85949114095308</v>
       </c>
       <c r="C5">
-        <v>8.678024623106309</v>
+        <v>7.88450751699798</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.463030752432227</v>
+        <v>10.88214099455525</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>25.07234461126732</v>
       </c>
       <c r="G5">
-        <v>21.20973120059196</v>
+        <v>20.61498777918656</v>
       </c>
       <c r="H5">
-        <v>9.339872906799002</v>
+        <v>2.727914485048869</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.248024566755215</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.008616811135669</v>
       </c>
       <c r="K5">
-        <v>10.08739725155001</v>
+        <v>15.13277885243484</v>
       </c>
       <c r="L5">
-        <v>6.044754817321673</v>
+        <v>5.425742878542091</v>
       </c>
       <c r="M5">
-        <v>8.82012347347926</v>
+        <v>9.543844491201465</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.355049689683785</v>
       </c>
       <c r="O5">
-        <v>14.84649967655899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.94180328473058</v>
+      </c>
+      <c r="Q5">
+        <v>14.30699296142811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.42431743007763</v>
+        <v>11.81421296407632</v>
       </c>
       <c r="C6">
-        <v>8.681369497326322</v>
+        <v>7.882502892780787</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.465156912976529</v>
+        <v>10.86604300420475</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>25.03964522701891</v>
       </c>
       <c r="G6">
-        <v>21.22732756012777</v>
+        <v>20.5995610422389</v>
       </c>
       <c r="H6">
-        <v>9.346417534921734</v>
+        <v>2.736519532894219</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.2575746135643</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.009082202660078</v>
       </c>
       <c r="K6">
-        <v>10.06334165341569</v>
+        <v>15.13096910651264</v>
       </c>
       <c r="L6">
-        <v>6.041669732865531</v>
+        <v>5.422026065779275</v>
       </c>
       <c r="M6">
-        <v>8.805464832812584</v>
+        <v>9.518219454575725</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.343136398678867</v>
       </c>
       <c r="O6">
-        <v>14.85828849773837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.94672859717156</v>
+      </c>
+      <c r="Q6">
+        <v>14.30453573339153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.69794853146625</v>
+        <v>12.07798254512289</v>
       </c>
       <c r="C7">
-        <v>8.65837250549315</v>
+        <v>7.902115468352735</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.450810345640642</v>
+        <v>10.9660898532748</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>25.20917786070134</v>
       </c>
       <c r="G7">
-        <v>21.10714444876428</v>
+        <v>20.62396302996363</v>
       </c>
       <c r="H7">
-        <v>9.301363665224818</v>
+        <v>2.679787506971047</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.221588392792384</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.993333684568668</v>
       </c>
       <c r="K7">
-        <v>10.22905022611283</v>
+        <v>15.10691649297262</v>
       </c>
       <c r="L7">
-        <v>6.063271405867448</v>
+        <v>5.451886932684911</v>
       </c>
       <c r="M7">
-        <v>8.906927745920195</v>
+        <v>9.693690070593385</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.442076120270029</v>
       </c>
       <c r="O7">
-        <v>14.7773036076954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.91335719057786</v>
+      </c>
+      <c r="Q7">
+        <v>14.2892616424381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.83520034309482</v>
+        <v>13.18727581533277</v>
       </c>
       <c r="C8">
-        <v>8.562361926169558</v>
+        <v>7.984811566352771</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.397886745519219</v>
+        <v>11.39996420543131</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>25.97565480354597</v>
       </c>
       <c r="G8">
-        <v>20.62723369998819</v>
+        <v>20.7765967761022</v>
       </c>
       <c r="H8">
-        <v>9.111879492543453</v>
+        <v>2.438658929170739</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.062075767641278</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.932611925893633</v>
       </c>
       <c r="K8">
-        <v>10.92827131058908</v>
+        <v>15.01925691548344</v>
       </c>
       <c r="L8">
-        <v>6.163160907096669</v>
+        <v>5.578514067726473</v>
       </c>
       <c r="M8">
-        <v>9.346728814060892</v>
+        <v>10.42995373476907</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.862921235382242</v>
       </c>
       <c r="O8">
-        <v>14.4412838991876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.77001259319324</v>
+      </c>
+      <c r="Q8">
+        <v>14.24223683712006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.81510112069362</v>
+        <v>15.13514999524871</v>
       </c>
       <c r="C9">
-        <v>8.39400486682816</v>
+        <v>8.136451289365791</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.333444396022522</v>
+        <v>12.21122156014112</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>27.50079573020807</v>
       </c>
       <c r="G9">
-        <v>19.88899959838377</v>
+        <v>21.19578381536369</v>
       </c>
       <c r="H9">
-        <v>8.774939133048884</v>
+        <v>1.999641864868185</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.763609272022431</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.839103321409931</v>
       </c>
       <c r="K9">
-        <v>12.17876220720967</v>
+        <v>14.8956884532602</v>
       </c>
       <c r="L9">
-        <v>6.374604297288497</v>
+        <v>5.810157065613528</v>
       </c>
       <c r="M9">
-        <v>10.17308188837859</v>
+        <v>11.73191368863066</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.635014871493903</v>
       </c>
       <c r="O9">
-        <v>13.86455456423248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.50273754869414</v>
+      </c>
+      <c r="Q9">
+        <v>14.20825711677225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.11940434824363</v>
+        <v>16.37992205117537</v>
       </c>
       <c r="C10">
-        <v>8.282731460618804</v>
+        <v>8.253109544837145</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.311971344016513</v>
+        <v>12.63656946203461</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>28.43099865789446</v>
       </c>
       <c r="G10">
-        <v>19.49250705918454</v>
+        <v>21.43380920780895</v>
       </c>
       <c r="H10">
-        <v>8.549757721633092</v>
+        <v>1.729520551679448</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.572192505937989</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.764466017299846</v>
       </c>
       <c r="K10">
-        <v>13.02039937702055</v>
+        <v>14.77553823871259</v>
       </c>
       <c r="L10">
-        <v>6.538619889488335</v>
+        <v>5.989138683283286</v>
       </c>
       <c r="M10">
-        <v>10.75255953691477</v>
+        <v>12.59285263336492</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.06876392325023</v>
       </c>
       <c r="O10">
-        <v>13.49689286941189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.31999613860708</v>
+      </c>
+      <c r="Q10">
+        <v>14.16299096865603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.68063883681428</v>
+        <v>16.56816424067208</v>
       </c>
       <c r="C11">
-        <v>8.234876762098152</v>
+        <v>8.398864145372581</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.3082327774669</v>
+        <v>11.66404177675684</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>27.38308993950043</v>
       </c>
       <c r="G11">
-        <v>19.34910772863304</v>
+        <v>20.60614448418659</v>
       </c>
       <c r="H11">
-        <v>8.452510975315295</v>
+        <v>2.752595832333983</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.542798527770894</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.588264233681839</v>
       </c>
       <c r="K11">
-        <v>13.38605684822958</v>
+        <v>14.34875008338944</v>
       </c>
       <c r="L11">
-        <v>6.614936629013757</v>
+        <v>6.23402195899411</v>
       </c>
       <c r="M11">
-        <v>11.00922125975815</v>
+        <v>12.91346015541476</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.375891913454762</v>
       </c>
       <c r="O11">
-        <v>13.34333273159142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.28718157063071</v>
+      </c>
+      <c r="Q11">
+        <v>13.77015265039907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.88859100229322</v>
+        <v>16.4829768240833</v>
       </c>
       <c r="C12">
-        <v>8.217159650854786</v>
+        <v>8.518191341443003</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.307718308817227</v>
+        <v>10.79031000048197</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>26.31078887210386</v>
       </c>
       <c r="G12">
-        <v>19.30059168740234</v>
+        <v>19.88193421579913</v>
       </c>
       <c r="H12">
-        <v>8.416466068861991</v>
+        <v>4.145977648138278</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.537552064076015</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.459347294157826</v>
       </c>
       <c r="K12">
-        <v>13.52202037307351</v>
+        <v>14.03365522557343</v>
       </c>
       <c r="L12">
-        <v>6.644065752959616</v>
+        <v>6.421174302530584</v>
       </c>
       <c r="M12">
-        <v>11.10534858181308</v>
+        <v>13.00900867871655</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.697063201869986</v>
       </c>
       <c r="O12">
-        <v>13.28729786515723</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.30525078097879</v>
+      </c>
+      <c r="Q12">
+        <v>13.45880903503006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84400759925606</v>
+        <v>16.16275442352153</v>
       </c>
       <c r="C13">
-        <v>8.220957243194212</v>
+        <v>8.625013534489728</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.307788479312112</v>
+        <v>9.934725946374993</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>25.11438910032112</v>
       </c>
       <c r="G13">
-        <v>19.31077543100452</v>
+        <v>19.14934405993972</v>
       </c>
       <c r="H13">
-        <v>8.424193685984209</v>
+        <v>5.575809416017863</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.566316265301957</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.353013806259755</v>
       </c>
       <c r="K13">
-        <v>13.49284987912002</v>
+        <v>13.76899836108096</v>
       </c>
       <c r="L13">
-        <v>6.637782305909079</v>
+        <v>6.576337066719999</v>
       </c>
       <c r="M13">
-        <v>11.0846941498</v>
+        <v>12.9397950002051</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.98574315966125</v>
       </c>
       <c r="O13">
-        <v>13.2992694122756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.3615380432678</v>
+      </c>
+      <c r="Q13">
+        <v>13.17550081335478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.69783864089822</v>
+        <v>15.82411203156748</v>
       </c>
       <c r="C14">
-        <v>8.233411017278577</v>
+        <v>8.697820800826916</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.308172193004632</v>
+        <v>9.356521480098849</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>24.21213242896646</v>
       </c>
       <c r="G14">
-        <v>19.3449975520319</v>
+        <v>18.62759029858924</v>
       </c>
       <c r="H14">
-        <v>8.449529688266599</v>
+        <v>6.587427005169699</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.604947919925356</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.28842395100234</v>
       </c>
       <c r="K14">
-        <v>13.39729294577442</v>
+        <v>13.60660710526646</v>
       </c>
       <c r="L14">
-        <v>6.617328585296516</v>
+        <v>6.672923233819958</v>
       </c>
       <c r="M14">
-        <v>11.01715139721699</v>
+        <v>12.81594238309174</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.474961957469885</v>
       </c>
       <c r="O14">
-        <v>13.33867942722546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.41848097520089</v>
+      </c>
+      <c r="Q14">
+        <v>12.98889009671906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.60771134761644</v>
+        <v>15.68544589645046</v>
       </c>
       <c r="C15">
-        <v>8.241092198946022</v>
+        <v>8.71242093277324</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.308525615504912</v>
+        <v>9.215172069129576</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>23.96189789312914</v>
       </c>
       <c r="G15">
-        <v>19.36672744234354</v>
+        <v>18.49233327149735</v>
       </c>
       <c r="H15">
-        <v>8.465151434401385</v>
+        <v>6.822760748961082</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.626589777699194</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.276606870913698</v>
       </c>
       <c r="K15">
-        <v>13.3384349011164</v>
+        <v>13.57450584674219</v>
       </c>
       <c r="L15">
-        <v>6.60482953955841</v>
+        <v>6.688003648267156</v>
       </c>
       <c r="M15">
-        <v>10.97563904087149</v>
+        <v>12.74994945698912</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.344343432197229</v>
       </c>
       <c r="O15">
-        <v>13.36309924747555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.43974401664653</v>
+      </c>
+      <c r="Q15">
+        <v>12.94704250824516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.08208387547762</v>
+        <v>15.19552146079047</v>
       </c>
       <c r="C16">
-        <v>8.285915077929772</v>
+        <v>8.639368051572456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.312339917996072</v>
+        <v>9.183585183893875</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>23.7622899503897</v>
       </c>
       <c r="G16">
-        <v>19.50266212580419</v>
+        <v>18.51245495995704</v>
       </c>
       <c r="H16">
-        <v>8.556220259191914</v>
+        <v>6.62186026926822</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.708153047332325</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.327789484141043</v>
       </c>
       <c r="K16">
-        <v>12.99615388936684</v>
+        <v>13.67550710860018</v>
       </c>
       <c r="L16">
-        <v>6.533665385215675</v>
+        <v>6.582926945694198</v>
       </c>
       <c r="M16">
-        <v>10.73564043823317</v>
+        <v>12.40663053229409</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.279407471761157</v>
       </c>
       <c r="O16">
-        <v>13.50721603360949</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.49846770248052</v>
+      </c>
+      <c r="Q16">
+        <v>13.01745554344594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.7514354663225</v>
+        <v>15.00051642751305</v>
       </c>
       <c r="C17">
-        <v>8.314125159412814</v>
+        <v>8.542855077438515</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.316248464610119</v>
+        <v>9.46199347672276</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>24.09767141951895</v>
       </c>
       <c r="G17">
-        <v>19.59584945478673</v>
+        <v>18.80693863066865</v>
       </c>
       <c r="H17">
-        <v>8.613439991387709</v>
+        <v>5.89943638917761</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.751042076376475</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.401256188159364</v>
       </c>
       <c r="K17">
-        <v>12.78174503932256</v>
+        <v>13.83748883104195</v>
       </c>
       <c r="L17">
-        <v>6.490434049296884</v>
+        <v>6.448092949551697</v>
       </c>
       <c r="M17">
-        <v>10.58657979222189</v>
+        <v>12.20671644120386</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.504904582434638</v>
       </c>
       <c r="O17">
-        <v>13.59923281957603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.51456632714131</v>
+      </c>
+      <c r="Q17">
+        <v>13.1702782501197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.55823134724522</v>
+        <v>15.06323916922724</v>
       </c>
       <c r="C18">
-        <v>8.330610570817557</v>
+        <v>8.420646263892564</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.319062035448983</v>
+        <v>10.07960370373927</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>24.94279356303548</v>
       </c>
       <c r="G18">
-        <v>19.65289823608726</v>
+        <v>19.38676463566321</v>
       </c>
       <c r="H18">
-        <v>8.646837414136082</v>
+        <v>4.674743409534049</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.753364543251338</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.504714636700074</v>
       </c>
       <c r="K18">
-        <v>12.65680417422512</v>
+        <v>14.08145973021672</v>
       </c>
       <c r="L18">
-        <v>6.465729952678918</v>
+        <v>6.278927152873848</v>
       </c>
       <c r="M18">
-        <v>10.50019357654593</v>
+        <v>12.11255377721637</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>8.01500935694132</v>
       </c>
       <c r="O18">
-        <v>13.65343743296681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.49791777873614</v>
+      </c>
+      <c r="Q18">
+        <v>13.41799858824118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.49229517865991</v>
+        <v>15.29577829297316</v>
       </c>
       <c r="C19">
-        <v>8.336236653782793</v>
+        <v>8.314278788804629</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.320110745109098</v>
+        <v>10.96420253608109</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>26.10337865447755</v>
       </c>
       <c r="G19">
-        <v>19.67279252480296</v>
+        <v>20.11040238851285</v>
       </c>
       <c r="H19">
-        <v>8.658227739192572</v>
+        <v>3.243006722935792</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.741419594811572</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.618634227568897</v>
       </c>
       <c r="K19">
-        <v>12.61422437560847</v>
+        <v>14.36223514006264</v>
       </c>
       <c r="L19">
-        <v>6.457393774719017</v>
+        <v>6.111363350182289</v>
       </c>
       <c r="M19">
-        <v>10.47083515321935</v>
+        <v>12.11176083535</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.735054996305641</v>
       </c>
       <c r="O19">
-        <v>13.67200564706107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.46369132298103</v>
+      </c>
+      <c r="Q19">
+        <v>13.70835174372229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.78694622575472</v>
+        <v>16.0178731888314</v>
       </c>
       <c r="C20">
-        <v>8.311095219962974</v>
+        <v>8.230659660392943</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.315773621269642</v>
+        <v>12.51105246135892</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>28.13037235295955</v>
       </c>
       <c r="G20">
-        <v>19.58556911549762</v>
+        <v>21.28579163016437</v>
       </c>
       <c r="H20">
-        <v>8.607298306610517</v>
+        <v>1.800334250557072</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.653484253396353</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.770341108485539</v>
       </c>
       <c r="K20">
-        <v>12.80473697867483</v>
+        <v>14.76854437806396</v>
       </c>
       <c r="L20">
-        <v>6.49501950594941</v>
+        <v>5.947841940222974</v>
       </c>
       <c r="M20">
-        <v>10.6025153858138</v>
+        <v>12.37197186361432</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.965751113714125</v>
       </c>
       <c r="O20">
-        <v>13.58930409476401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.36992818034794</v>
+      </c>
+      <c r="Q20">
+        <v>14.13986265918567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.74089584344948</v>
+        <v>17.01766451898347</v>
       </c>
       <c r="C21">
-        <v>8.229742007338189</v>
+        <v>8.305798843468464</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.308034754030235</v>
+        <v>13.04118899634479</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>29.10782752861948</v>
       </c>
       <c r="G21">
-        <v>19.33478479735004</v>
+        <v>21.66368573171874</v>
       </c>
       <c r="H21">
-        <v>8.44206641739469</v>
+        <v>1.568632190779672</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.518361171278667</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.744398136613778</v>
       </c>
       <c r="K21">
-        <v>13.42542844859502</v>
+        <v>14.75468429903081</v>
       </c>
       <c r="L21">
-        <v>6.623330228984605</v>
+        <v>6.054936513364105</v>
       </c>
       <c r="M21">
-        <v>11.03701971859325</v>
+        <v>13.01331871524308</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.44617715433603</v>
       </c>
       <c r="O21">
-        <v>13.32704510540937</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.22558450890033</v>
+      </c>
+      <c r="Q21">
+        <v>14.1855163223265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.33770952296891</v>
+        <v>17.63362638107914</v>
       </c>
       <c r="C22">
-        <v>8.178933979843082</v>
+        <v>8.355370011255344</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.308246088555235</v>
+        <v>13.31402945884902</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>29.6751955294678</v>
       </c>
       <c r="G22">
-        <v>19.20484130225678</v>
+        <v>21.89754046511881</v>
       </c>
       <c r="H22">
-        <v>8.338645447290119</v>
+        <v>1.709857399368385</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.607626667169376</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.726795545379186</v>
       </c>
       <c r="K22">
-        <v>13.81648945348727</v>
+        <v>14.74283186617791</v>
       </c>
       <c r="L22">
-        <v>6.708520267313231</v>
+        <v>6.130208326649438</v>
       </c>
       <c r="M22">
-        <v>11.32060796354279</v>
+        <v>13.4129109386242</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.69435921961863</v>
       </c>
       <c r="O22">
-        <v>13.16805102349114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.13385325525723</v>
+      </c>
+      <c r="Q22">
+        <v>14.2124582528053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.0216032356992</v>
+        <v>17.32021411833288</v>
       </c>
       <c r="C23">
-        <v>8.205832679433644</v>
+        <v>8.326069681173133</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.307639827148714</v>
+        <v>13.1724855199643</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>29.3911060668195</v>
       </c>
       <c r="G23">
-        <v>19.27092671901774</v>
+        <v>21.80070340409139</v>
       </c>
       <c r="H23">
-        <v>8.39341271525374</v>
+        <v>1.635502086425769</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.554451308138912</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.740578885843057</v>
       </c>
       <c r="K23">
-        <v>13.60911563783612</v>
+        <v>14.76224833279406</v>
       </c>
       <c r="L23">
-        <v>6.662935938147342</v>
+        <v>6.088572434749138</v>
       </c>
       <c r="M23">
-        <v>11.16711541210115</v>
+        <v>13.201399535862</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.55749547692349</v>
       </c>
       <c r="O23">
-        <v>13.25172140712183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.181622974541</v>
+      </c>
+      <c r="Q23">
+        <v>14.20937015698027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.77090150126298</v>
+        <v>16.0537682326859</v>
       </c>
       <c r="C24">
-        <v>8.312464224274327</v>
+        <v>8.218717839178954</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.315986536025051</v>
+        <v>12.61724124186022</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>28.27651092387356</v>
       </c>
       <c r="G24">
-        <v>19.59020607109464</v>
+        <v>21.40793347023875</v>
       </c>
       <c r="H24">
-        <v>8.610073404201003</v>
+        <v>1.780496740768179</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.632849099803584</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.790520321588659</v>
       </c>
       <c r="K24">
-        <v>12.79434753588853</v>
+        <v>14.82246901771848</v>
       </c>
       <c r="L24">
-        <v>6.492945952049841</v>
+        <v>5.929998845241305</v>
       </c>
       <c r="M24">
-        <v>10.59531304572642</v>
+        <v>12.36642077399444</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.03327325752988</v>
       </c>
       <c r="O24">
-        <v>13.59378882376375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.3674632943032</v>
+      </c>
+      <c r="Q24">
+        <v>14.19045428364166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.30605347824283</v>
+        <v>14.61284033610843</v>
       </c>
       <c r="C25">
-        <v>8.437390891661636</v>
+        <v>8.100083136280785</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.346472338026162</v>
+        <v>11.99137515166535</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>27.06009822084644</v>
       </c>
       <c r="G25">
-        <v>20.06479825086604</v>
+        <v>21.02831708940387</v>
       </c>
       <c r="H25">
-        <v>8.862264200540936</v>
+        <v>2.115973995139024</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.858303002231576</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.8552194513549</v>
       </c>
       <c r="K25">
-        <v>11.8538080935014</v>
+        <v>14.9052662481514</v>
       </c>
       <c r="L25">
-        <v>6.315819930207094</v>
+        <v>5.751524797632353</v>
       </c>
       <c r="M25">
-        <v>9.954024080137113</v>
+        <v>11.39486258533894</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.439870757292832</v>
       </c>
       <c r="O25">
-        <v>14.01120258141126</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.57458726338178</v>
+      </c>
+      <c r="Q25">
+        <v>14.19460032593338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.48990052376283</v>
+        <v>13.23647850369556</v>
       </c>
       <c r="C2">
-        <v>8.003896717455753</v>
+        <v>7.621555707705265</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.51934287270698</v>
+        <v>11.44654997515753</v>
       </c>
       <c r="F2">
-        <v>26.20758212230603</v>
+        <v>25.81418931757104</v>
       </c>
       <c r="G2">
-        <v>20.85931376221414</v>
+        <v>19.62744354128271</v>
       </c>
       <c r="H2">
-        <v>2.374683957142732</v>
+        <v>2.302141588697336</v>
       </c>
       <c r="I2">
-        <v>3.008446298150264</v>
+        <v>2.906198284199579</v>
       </c>
       <c r="J2">
-        <v>8.922980498717106</v>
+        <v>9.151787236148552</v>
       </c>
       <c r="K2">
-        <v>15.01362237563788</v>
+        <v>14.57339670840413</v>
       </c>
       <c r="L2">
-        <v>5.609953445262419</v>
+        <v>12.13404606479092</v>
       </c>
       <c r="M2">
-        <v>10.62028706336328</v>
+        <v>9.4065006745062</v>
       </c>
       <c r="N2">
-        <v>8.967167858543837</v>
+        <v>5.590811952537696</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.63364324312537</v>
       </c>
       <c r="P2">
-        <v>12.7315535695454</v>
+        <v>9.126810384788824</v>
       </c>
       <c r="Q2">
-        <v>14.24654830626979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.64549452443486</v>
+      </c>
+      <c r="S2">
+        <v>13.94271765246773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.64572668388426</v>
+        <v>12.42111482113756</v>
       </c>
       <c r="C3">
-        <v>7.940402341397923</v>
+        <v>7.528110485234111</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.18273694753372</v>
+        <v>11.12159247204751</v>
       </c>
       <c r="F3">
-        <v>25.60153169645339</v>
+        <v>25.24651140920554</v>
       </c>
       <c r="G3">
-        <v>20.72444362367973</v>
+        <v>19.57068475135229</v>
       </c>
       <c r="H3">
-        <v>2.560022214759401</v>
+        <v>2.478719157327977</v>
       </c>
       <c r="I3">
-        <v>3.132172204352231</v>
+        <v>3.017500502671045</v>
       </c>
       <c r="J3">
-        <v>8.967548202160613</v>
+        <v>9.174041163946761</v>
       </c>
       <c r="K3">
-        <v>15.07640570296913</v>
+        <v>14.6526784045367</v>
       </c>
       <c r="L3">
-        <v>5.512496319616286</v>
+        <v>12.27259034849179</v>
       </c>
       <c r="M3">
-        <v>10.05850885228623</v>
+        <v>9.41907225955458</v>
       </c>
       <c r="N3">
-        <v>8.642470703447087</v>
+        <v>5.484436304704446</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.07606830941973</v>
       </c>
       <c r="P3">
-        <v>12.84265755156171</v>
+        <v>8.795999330985314</v>
       </c>
       <c r="Q3">
-        <v>14.27633157193716</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.74480582966718</v>
+      </c>
+      <c r="S3">
+        <v>13.9890651775844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.09593244090913</v>
+        <v>11.88927534293917</v>
       </c>
       <c r="C4">
-        <v>7.900488226427954</v>
+        <v>7.470060022862446</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.97080094413871</v>
+        <v>10.91702771061459</v>
       </c>
       <c r="F4">
-        <v>25.22930567368922</v>
+        <v>24.89743109481543</v>
       </c>
       <c r="G4">
-        <v>20.6506870766956</v>
+        <v>19.54587498005847</v>
       </c>
       <c r="H4">
-        <v>2.678318715289819</v>
+        <v>2.591459028555491</v>
       </c>
       <c r="I4">
-        <v>3.211881644141137</v>
+        <v>3.089515179579533</v>
       </c>
       <c r="J4">
-        <v>8.9971807587629</v>
+        <v>9.18868700353716</v>
       </c>
       <c r="K4">
-        <v>15.1183396117754</v>
+        <v>14.70382144431349</v>
       </c>
       <c r="L4">
-        <v>5.450890824628999</v>
+        <v>12.36002772916221</v>
       </c>
       <c r="M4">
-        <v>9.695993982402754</v>
+        <v>9.4435604228189</v>
       </c>
       <c r="N4">
-        <v>8.437990058119041</v>
+        <v>5.417322784793091</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.716355984210383</v>
       </c>
       <c r="P4">
-        <v>12.91272830139516</v>
+        <v>8.588061593635233</v>
       </c>
       <c r="Q4">
-        <v>14.29946692367368</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.80784015674828</v>
+      </c>
+      <c r="S4">
+        <v>14.02151021287705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.85949114095308</v>
+        <v>11.66012299031997</v>
       </c>
       <c r="C5">
-        <v>7.88450751699798</v>
+        <v>7.447201211697975</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.88214099455525</v>
+        <v>10.8314170018838</v>
       </c>
       <c r="F5">
-        <v>25.07234461126732</v>
+        <v>24.74970732674614</v>
       </c>
       <c r="G5">
-        <v>20.61498777918656</v>
+        <v>19.53019580958718</v>
       </c>
       <c r="H5">
-        <v>2.727914485048869</v>
+        <v>2.638741438972934</v>
       </c>
       <c r="I5">
-        <v>3.248024566755215</v>
+        <v>3.122981002654923</v>
       </c>
       <c r="J5">
-        <v>9.008616811135669</v>
+        <v>9.193661175667884</v>
       </c>
       <c r="K5">
-        <v>15.13277885243484</v>
+        <v>14.72181277878422</v>
       </c>
       <c r="L5">
-        <v>5.425742878542091</v>
+        <v>12.39282021538323</v>
       </c>
       <c r="M5">
-        <v>9.543844491201465</v>
+        <v>9.455994171220297</v>
       </c>
       <c r="N5">
-        <v>8.355049689683785</v>
+        <v>5.389952188560285</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.565412551025673</v>
       </c>
       <c r="P5">
-        <v>12.94180328473058</v>
+        <v>8.503808142716974</v>
       </c>
       <c r="Q5">
-        <v>14.30699296142811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.83414681875779</v>
+      </c>
+      <c r="S5">
+        <v>14.0326071970816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.81421296407632</v>
+        <v>11.61596826763817</v>
       </c>
       <c r="C6">
-        <v>7.882502892780787</v>
+        <v>7.444608894064664</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.86604300420475</v>
+        <v>10.81582182889089</v>
       </c>
       <c r="F6">
-        <v>25.03964522701891</v>
+        <v>24.71845420025349</v>
       </c>
       <c r="G6">
-        <v>20.5995610422389</v>
+        <v>19.51794978344002</v>
       </c>
       <c r="H6">
-        <v>2.736519532894219</v>
+        <v>2.646955359321875</v>
       </c>
       <c r="I6">
-        <v>3.2575746135643</v>
+        <v>3.132712589004065</v>
       </c>
       <c r="J6">
-        <v>9.009082202660078</v>
+        <v>9.192987631319784</v>
       </c>
       <c r="K6">
-        <v>15.13096910651264</v>
+        <v>14.7206127250724</v>
       </c>
       <c r="L6">
-        <v>5.422026065779275</v>
+        <v>12.39410749451217</v>
       </c>
       <c r="M6">
-        <v>9.518219454575725</v>
+        <v>9.456180530705934</v>
       </c>
       <c r="N6">
-        <v>8.343136398678867</v>
+        <v>5.385898918343296</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.539996597478794</v>
       </c>
       <c r="P6">
-        <v>12.94672859717156</v>
+        <v>8.49169625805621</v>
       </c>
       <c r="Q6">
-        <v>14.30453573339153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.83867821209304</v>
+      </c>
+      <c r="S6">
+        <v>14.03071915180639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.07798254512289</v>
+        <v>11.86867821510066</v>
       </c>
       <c r="C7">
-        <v>7.902115468352735</v>
+        <v>7.471447064157761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.9660898532748</v>
+        <v>10.91555847764093</v>
       </c>
       <c r="F7">
-        <v>25.20917786070134</v>
+        <v>24.86954362331862</v>
       </c>
       <c r="G7">
-        <v>20.62396302996363</v>
+        <v>19.58796625301213</v>
       </c>
       <c r="H7">
-        <v>2.679787506971047</v>
+        <v>2.593251889523965</v>
       </c>
       <c r="I7">
-        <v>3.221588392792384</v>
+        <v>3.101249932933228</v>
       </c>
       <c r="J7">
-        <v>8.993333684568668</v>
+        <v>9.157120087719932</v>
       </c>
       <c r="K7">
-        <v>15.10691649297262</v>
+        <v>14.68832220914092</v>
       </c>
       <c r="L7">
-        <v>5.451886932684911</v>
+        <v>12.34521689174798</v>
       </c>
       <c r="M7">
-        <v>9.693690070593385</v>
+        <v>9.435285429413277</v>
       </c>
       <c r="N7">
-        <v>8.442076120270029</v>
+        <v>5.419004279426717</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.710240396523369</v>
       </c>
       <c r="P7">
-        <v>12.91335719057786</v>
+        <v>8.593048950606406</v>
       </c>
       <c r="Q7">
-        <v>14.2892616424381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.80886939707708</v>
+      </c>
+      <c r="S7">
+        <v>14.00468535551224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.18727581533277</v>
+        <v>12.93572335243422</v>
       </c>
       <c r="C8">
-        <v>7.984811566352771</v>
+        <v>7.588674575014491</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.39996420543131</v>
+        <v>11.3415371702813</v>
       </c>
       <c r="F8">
-        <v>25.97565480354597</v>
+        <v>25.57060862143724</v>
       </c>
       <c r="G8">
-        <v>20.7765967761022</v>
+        <v>19.80039362743689</v>
       </c>
       <c r="H8">
-        <v>2.438658929170739</v>
+        <v>2.364241170744732</v>
       </c>
       <c r="I8">
-        <v>3.062075767641278</v>
+        <v>2.958940716793042</v>
       </c>
       <c r="J8">
-        <v>8.932611925893633</v>
+        <v>9.064536307595334</v>
       </c>
       <c r="K8">
-        <v>15.01925691548344</v>
+        <v>14.57127082082437</v>
       </c>
       <c r="L8">
-        <v>5.578514067726473</v>
+        <v>12.15562240018638</v>
       </c>
       <c r="M8">
-        <v>10.42995373476907</v>
+        <v>9.388922261367096</v>
       </c>
       <c r="N8">
-        <v>8.862921235382242</v>
+        <v>5.558548583466324</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.43275822996374</v>
       </c>
       <c r="P8">
-        <v>12.77001259319324</v>
+        <v>9.023274355262915</v>
       </c>
       <c r="Q8">
-        <v>14.24223683712006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.68128822128622</v>
+      </c>
+      <c r="S8">
+        <v>13.92236223914465</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.13514999524871</v>
+        <v>14.84669811522673</v>
       </c>
       <c r="C9">
-        <v>8.136451289365791</v>
+        <v>7.812883346002359</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.21122156014112</v>
+        <v>12.12730726619348</v>
       </c>
       <c r="F9">
-        <v>27.50079573020807</v>
+        <v>26.9939121443715</v>
       </c>
       <c r="G9">
-        <v>21.19578381536369</v>
+        <v>20.09194910381004</v>
       </c>
       <c r="H9">
-        <v>1.999641864868185</v>
+        <v>1.946319730676759</v>
       </c>
       <c r="I9">
-        <v>2.763609272022431</v>
+        <v>2.689554168143493</v>
       </c>
       <c r="J9">
-        <v>8.839103321409931</v>
+        <v>8.994980677644083</v>
       </c>
       <c r="K9">
-        <v>14.8956884532602</v>
+        <v>14.39748549384997</v>
       </c>
       <c r="L9">
-        <v>5.810157065613528</v>
+        <v>11.8349270180403</v>
       </c>
       <c r="M9">
-        <v>11.73191368863066</v>
+        <v>9.453165256069477</v>
       </c>
       <c r="N9">
-        <v>9.635014871493903</v>
+        <v>5.812642666516792</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.72347380045026</v>
       </c>
       <c r="P9">
-        <v>12.50273754869414</v>
+        <v>9.812370690594275</v>
       </c>
       <c r="Q9">
-        <v>14.20825711677225</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.44539557321405</v>
+      </c>
+      <c r="S9">
+        <v>13.83628658181782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.37992205117537</v>
+        <v>16.05563752765154</v>
       </c>
       <c r="C10">
-        <v>8.253109544837145</v>
+        <v>7.978651683925269</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.63656946203461</v>
+        <v>12.55289129208402</v>
       </c>
       <c r="F10">
-        <v>28.43099865789446</v>
+        <v>27.81540566373496</v>
       </c>
       <c r="G10">
-        <v>21.43380920780895</v>
+        <v>20.64842705716446</v>
       </c>
       <c r="H10">
-        <v>1.729520551679448</v>
+        <v>1.692503772121806</v>
       </c>
       <c r="I10">
-        <v>2.572192505937989</v>
+        <v>2.521776402346996</v>
       </c>
       <c r="J10">
-        <v>8.764466017299846</v>
+        <v>8.786611538108724</v>
       </c>
       <c r="K10">
-        <v>14.77553823871259</v>
+        <v>14.21746771421408</v>
       </c>
       <c r="L10">
-        <v>5.989138683283286</v>
+        <v>11.56399146353062</v>
       </c>
       <c r="M10">
-        <v>12.59285263336492</v>
+        <v>9.525823481794252</v>
       </c>
       <c r="N10">
-        <v>10.06876392325023</v>
+        <v>6.012289522724753</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.55928772962282</v>
       </c>
       <c r="P10">
-        <v>12.31999613860708</v>
+        <v>10.26230558861624</v>
       </c>
       <c r="Q10">
-        <v>14.16299096865603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.29150926204767</v>
+      </c>
+      <c r="S10">
+        <v>13.71453829314344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.56816424067208</v>
+        <v>16.22592612254081</v>
       </c>
       <c r="C11">
-        <v>8.398864145372581</v>
+        <v>8.158806908406406</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.66404177675684</v>
+        <v>11.61434802063301</v>
       </c>
       <c r="F11">
-        <v>27.38308993950043</v>
+        <v>26.70040157676849</v>
       </c>
       <c r="G11">
-        <v>20.60614448418659</v>
+        <v>20.70667252767541</v>
       </c>
       <c r="H11">
-        <v>2.752595832333983</v>
+        <v>2.733632661401376</v>
       </c>
       <c r="I11">
-        <v>2.542798527770894</v>
+        <v>2.516687629331364</v>
       </c>
       <c r="J11">
-        <v>8.588264233681839</v>
+        <v>8.377524020637605</v>
       </c>
       <c r="K11">
-        <v>14.34875008338944</v>
+        <v>13.77568482430094</v>
       </c>
       <c r="L11">
-        <v>6.23402195899411</v>
+        <v>11.19912622489639</v>
       </c>
       <c r="M11">
-        <v>12.91346015541476</v>
+        <v>9.257868530990274</v>
       </c>
       <c r="N11">
-        <v>9.375891913454762</v>
+        <v>6.280543257515456</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12.83966898126369</v>
       </c>
       <c r="P11">
-        <v>12.28718157063071</v>
+        <v>9.571278723466804</v>
       </c>
       <c r="Q11">
-        <v>13.77015265039907</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.28937514683608</v>
+      </c>
+      <c r="S11">
+        <v>13.26193927223029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4829768240833</v>
+        <v>16.14693365323449</v>
       </c>
       <c r="C12">
-        <v>8.518191341443003</v>
+        <v>8.292291088286017</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.79031000048197</v>
+        <v>10.75612981336087</v>
       </c>
       <c r="F12">
-        <v>26.31078887210386</v>
+        <v>25.62050986662592</v>
       </c>
       <c r="G12">
-        <v>19.88193421579913</v>
+        <v>20.40880881624761</v>
       </c>
       <c r="H12">
-        <v>4.145977648138278</v>
+        <v>4.133869894258815</v>
       </c>
       <c r="I12">
-        <v>2.537552064076015</v>
+        <v>2.519696335674012</v>
       </c>
       <c r="J12">
-        <v>8.459347294157826</v>
+        <v>8.192852125713303</v>
       </c>
       <c r="K12">
-        <v>14.03365522557343</v>
+        <v>13.47817198610096</v>
       </c>
       <c r="L12">
-        <v>6.421174302530584</v>
+        <v>10.98289228992455</v>
       </c>
       <c r="M12">
-        <v>13.00900867871655</v>
+        <v>9.03508654929732</v>
       </c>
       <c r="N12">
-        <v>8.697063201869986</v>
+        <v>6.480293769985086</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12.91704817734171</v>
       </c>
       <c r="P12">
-        <v>12.30525078097879</v>
+        <v>8.886908901226775</v>
       </c>
       <c r="Q12">
-        <v>13.45880903503006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.32516147042906</v>
+      </c>
+      <c r="S12">
+        <v>12.94301493682379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.16275442352153</v>
+        <v>15.85691828946187</v>
       </c>
       <c r="C13">
-        <v>8.625013534489728</v>
+        <v>8.411239851299705</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.934725946374993</v>
+        <v>9.898211691222391</v>
       </c>
       <c r="F13">
-        <v>25.11438910032112</v>
+        <v>24.47769476656691</v>
       </c>
       <c r="G13">
-        <v>19.14934405993972</v>
+        <v>19.58900165693268</v>
       </c>
       <c r="H13">
-        <v>5.575809416017863</v>
+        <v>5.565638837900007</v>
       </c>
       <c r="I13">
-        <v>2.566316265301957</v>
+        <v>2.527203281840932</v>
       </c>
       <c r="J13">
-        <v>8.353013806259755</v>
+        <v>8.158488961017014</v>
       </c>
       <c r="K13">
-        <v>13.76899836108096</v>
+        <v>13.26341723781238</v>
       </c>
       <c r="L13">
-        <v>6.576337066719999</v>
+        <v>10.8475630612674</v>
       </c>
       <c r="M13">
-        <v>12.9397950002051</v>
+        <v>8.832364709224747</v>
       </c>
       <c r="N13">
-        <v>7.98574315966125</v>
+        <v>6.636958421776153</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>12.85287751764483</v>
       </c>
       <c r="P13">
-        <v>12.3615380432678</v>
+        <v>8.162627963189053</v>
       </c>
       <c r="Q13">
-        <v>13.17550081335478</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.38531796468658</v>
+      </c>
+      <c r="S13">
+        <v>12.70528213463215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82411203156748</v>
+        <v>15.55054799895043</v>
       </c>
       <c r="C14">
-        <v>8.697820800826916</v>
+        <v>8.493356182639339</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.356521480098849</v>
+        <v>9.312436341004108</v>
       </c>
       <c r="F14">
-        <v>24.21213242896646</v>
+        <v>23.63914567027543</v>
       </c>
       <c r="G14">
-        <v>18.62759029858924</v>
+        <v>18.78944945019988</v>
       </c>
       <c r="H14">
-        <v>6.587427005169699</v>
+        <v>6.577504908569956</v>
       </c>
       <c r="I14">
-        <v>2.604947919925356</v>
+        <v>2.560987984876668</v>
       </c>
       <c r="J14">
-        <v>8.28842395100234</v>
+        <v>8.18917983339411</v>
       </c>
       <c r="K14">
-        <v>13.60660710526646</v>
+        <v>13.14744223689514</v>
       </c>
       <c r="L14">
-        <v>6.672923233819958</v>
+        <v>10.78314891342592</v>
       </c>
       <c r="M14">
-        <v>12.81594238309174</v>
+        <v>8.700972214355925</v>
       </c>
       <c r="N14">
-        <v>7.474961957469885</v>
+        <v>6.728885132536478</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.74283207411538</v>
       </c>
       <c r="P14">
-        <v>12.41848097520089</v>
+        <v>7.639816872233618</v>
       </c>
       <c r="Q14">
-        <v>12.98889009671906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.43766445715395</v>
+      </c>
+      <c r="S14">
+        <v>12.57157069524278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68544589645046</v>
+        <v>15.42461006008161</v>
       </c>
       <c r="C15">
-        <v>8.71242093277324</v>
+        <v>8.511522010200888</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.215172069129576</v>
+        <v>9.167253225654191</v>
       </c>
       <c r="F15">
-        <v>23.96189789312914</v>
+        <v>23.41548208052097</v>
       </c>
       <c r="G15">
-        <v>18.49233327149735</v>
+        <v>18.4972592537029</v>
       </c>
       <c r="H15">
-        <v>6.822760748961082</v>
+        <v>6.812553396238561</v>
       </c>
       <c r="I15">
-        <v>2.626589777699194</v>
+        <v>2.580998057244143</v>
       </c>
       <c r="J15">
-        <v>8.276606870913698</v>
+        <v>8.220963097562461</v>
       </c>
       <c r="K15">
-        <v>13.57450584674219</v>
+        <v>13.13156485577325</v>
       </c>
       <c r="L15">
-        <v>6.688003648267156</v>
+        <v>10.77851471182155</v>
       </c>
       <c r="M15">
-        <v>12.74994945698912</v>
+        <v>8.671581156453067</v>
       </c>
       <c r="N15">
-        <v>7.344343432197229</v>
+        <v>6.740526237977133</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.68466683957668</v>
       </c>
       <c r="P15">
-        <v>12.43974401664653</v>
+        <v>7.505174560833569</v>
       </c>
       <c r="Q15">
-        <v>12.94704250824516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.45480694871102</v>
+      </c>
+      <c r="S15">
+        <v>12.55141509969309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.19552146079047</v>
+        <v>14.9769185217665</v>
       </c>
       <c r="C16">
-        <v>8.639368051572456</v>
+        <v>8.442172508841693</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.183585183893875</v>
+        <v>9.119148272603203</v>
       </c>
       <c r="F16">
-        <v>23.7622899503897</v>
+        <v>23.30895948953646</v>
       </c>
       <c r="G16">
-        <v>18.51245495995704</v>
+        <v>17.80501923116588</v>
       </c>
       <c r="H16">
-        <v>6.62186026926822</v>
+        <v>6.608119498303842</v>
       </c>
       <c r="I16">
-        <v>2.708153047332325</v>
+        <v>2.651656675814103</v>
       </c>
       <c r="J16">
-        <v>8.327789484141043</v>
+        <v>8.459684308203197</v>
       </c>
       <c r="K16">
-        <v>13.67550710860018</v>
+        <v>13.27318100537907</v>
       </c>
       <c r="L16">
-        <v>6.582926945694198</v>
+        <v>10.90357012222628</v>
       </c>
       <c r="M16">
-        <v>12.40663053229409</v>
+        <v>8.717875555583229</v>
       </c>
       <c r="N16">
-        <v>7.279407471761157</v>
+        <v>6.616420342808738</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.37869253568631</v>
       </c>
       <c r="P16">
-        <v>12.49846770248052</v>
+        <v>7.43110256194511</v>
       </c>
       <c r="Q16">
-        <v>13.01745554344594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.4880663101286</v>
+      </c>
+      <c r="S16">
+        <v>12.69493828385677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.00051642751305</v>
+        <v>14.79371199860702</v>
       </c>
       <c r="C17">
-        <v>8.542855077438515</v>
+        <v>8.337222717552702</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.46199347672276</v>
+        <v>9.3892916334097</v>
       </c>
       <c r="F17">
-        <v>24.09767141951895</v>
+        <v>23.67266706670649</v>
       </c>
       <c r="G17">
-        <v>18.80693863066865</v>
+        <v>17.80072003935175</v>
       </c>
       <c r="H17">
-        <v>5.89943638917761</v>
+        <v>5.882065425058045</v>
       </c>
       <c r="I17">
-        <v>2.751042076376475</v>
+        <v>2.68930352212489</v>
       </c>
       <c r="J17">
-        <v>8.401256188159364</v>
+        <v>8.616453944335914</v>
       </c>
       <c r="K17">
-        <v>13.83748883104195</v>
+        <v>13.43966048468803</v>
       </c>
       <c r="L17">
-        <v>6.448092949551697</v>
+        <v>11.03910793618029</v>
       </c>
       <c r="M17">
-        <v>12.20671644120386</v>
+        <v>8.815430940086021</v>
       </c>
       <c r="N17">
-        <v>7.504904582434638</v>
+        <v>6.4719441955064</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.19529885804307</v>
       </c>
       <c r="P17">
-        <v>12.51456632714131</v>
+        <v>7.656445169715065</v>
       </c>
       <c r="Q17">
-        <v>13.1702782501197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.49058265556996</v>
+      </c>
+      <c r="S17">
+        <v>12.86902947303099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.06323916922724</v>
+        <v>14.83955042401461</v>
       </c>
       <c r="C18">
-        <v>8.420646263892564</v>
+        <v>8.197402586588392</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.07960370373927</v>
+        <v>9.999303241099613</v>
       </c>
       <c r="F18">
-        <v>24.94279356303548</v>
+        <v>24.50869229899708</v>
       </c>
       <c r="G18">
-        <v>19.38676463566321</v>
+        <v>18.23384485886181</v>
       </c>
       <c r="H18">
-        <v>4.674743409534049</v>
+        <v>4.65217796837281</v>
       </c>
       <c r="I18">
-        <v>2.753364543251338</v>
+        <v>2.68832948992361</v>
       </c>
       <c r="J18">
-        <v>8.504714636700074</v>
+        <v>8.749153952868234</v>
       </c>
       <c r="K18">
-        <v>14.08145973021672</v>
+        <v>13.66528989560614</v>
       </c>
       <c r="L18">
-        <v>6.278927152873848</v>
+        <v>11.21462266526192</v>
       </c>
       <c r="M18">
-        <v>12.11255377721637</v>
+        <v>8.976907882258812</v>
       </c>
       <c r="N18">
-        <v>8.01500935694132</v>
+        <v>6.297411319515699</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.10793883794684</v>
       </c>
       <c r="P18">
-        <v>12.49791777873614</v>
+        <v>8.172145068470456</v>
       </c>
       <c r="Q18">
-        <v>13.41799858824118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.46553003481574</v>
+      </c>
+      <c r="S18">
+        <v>13.10998146474376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.29577829297316</v>
+        <v>15.04543188275264</v>
       </c>
       <c r="C19">
-        <v>8.314278788804629</v>
+        <v>8.070131199044527</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.96420253608109</v>
+        <v>10.87598617161765</v>
       </c>
       <c r="F19">
-        <v>26.10337865447755</v>
+        <v>25.63648519177861</v>
       </c>
       <c r="G19">
-        <v>20.11040238851285</v>
+        <v>18.87986414997621</v>
       </c>
       <c r="H19">
-        <v>3.243006722935792</v>
+        <v>3.212004502272937</v>
       </c>
       <c r="I19">
-        <v>2.741419594811572</v>
+        <v>2.678802018012893</v>
       </c>
       <c r="J19">
-        <v>8.618634227568897</v>
+        <v>8.862157705545281</v>
       </c>
       <c r="K19">
-        <v>14.36223514006264</v>
+        <v>13.91338169322078</v>
       </c>
       <c r="L19">
-        <v>6.111363350182289</v>
+        <v>11.40273427772366</v>
       </c>
       <c r="M19">
-        <v>12.11176083535</v>
+        <v>9.169456219406017</v>
       </c>
       <c r="N19">
-        <v>8.735054996305641</v>
+        <v>6.126589243125055</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.10840594516312</v>
       </c>
       <c r="P19">
-        <v>12.46369132298103</v>
+        <v>8.901534183347486</v>
       </c>
       <c r="Q19">
-        <v>13.70835174372229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.42609052517939</v>
+      </c>
+      <c r="S19">
+        <v>13.37670712710565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.0178731888314</v>
+        <v>15.7182161423747</v>
       </c>
       <c r="C20">
-        <v>8.230659660392943</v>
+        <v>7.956089106166877</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.51105246135892</v>
+        <v>12.41688524465493</v>
       </c>
       <c r="F20">
-        <v>28.13037235295955</v>
+        <v>27.56749146634243</v>
       </c>
       <c r="G20">
-        <v>21.28579163016437</v>
+        <v>20.16854495398328</v>
       </c>
       <c r="H20">
-        <v>1.800334250557072</v>
+        <v>1.75799505020572</v>
       </c>
       <c r="I20">
-        <v>2.653484253396353</v>
+        <v>2.601664733895553</v>
       </c>
       <c r="J20">
-        <v>8.770341108485539</v>
+        <v>8.918882612073773</v>
       </c>
       <c r="K20">
-        <v>14.76854437806396</v>
+        <v>14.24286931938993</v>
       </c>
       <c r="L20">
-        <v>5.947841940222974</v>
+        <v>11.61850086647799</v>
       </c>
       <c r="M20">
-        <v>12.37197186361432</v>
+        <v>9.485008321601711</v>
       </c>
       <c r="N20">
-        <v>9.965751113714125</v>
+        <v>5.963622824608933</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.35598904968186</v>
       </c>
       <c r="P20">
-        <v>12.36992818034794</v>
+        <v>10.15242703857791</v>
       </c>
       <c r="Q20">
-        <v>14.13986265918567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.33270633810885</v>
+      </c>
+      <c r="S20">
+        <v>13.73603843508908</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.01766451898347</v>
+        <v>16.62596656092373</v>
       </c>
       <c r="C21">
-        <v>8.305798843468464</v>
+        <v>8.029649609117669</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.04118899634479</v>
+        <v>13.00101397852017</v>
       </c>
       <c r="F21">
-        <v>29.10782752861948</v>
+        <v>28.32656307842051</v>
       </c>
       <c r="G21">
-        <v>21.66368573171874</v>
+        <v>22.10854199088339</v>
       </c>
       <c r="H21">
-        <v>1.568632190779672</v>
+        <v>1.593105433092792</v>
       </c>
       <c r="I21">
-        <v>2.518361171278667</v>
+        <v>2.566518683046416</v>
       </c>
       <c r="J21">
-        <v>8.744398136613778</v>
+        <v>8.369926116078853</v>
       </c>
       <c r="K21">
-        <v>14.75468429903081</v>
+        <v>14.09466193044392</v>
       </c>
       <c r="L21">
-        <v>6.054936513364105</v>
+        <v>11.41043690600147</v>
       </c>
       <c r="M21">
-        <v>13.01331871524308</v>
+        <v>9.547542854357467</v>
       </c>
       <c r="N21">
-        <v>10.44617715433603</v>
+        <v>6.097579040477018</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.92196773826653</v>
       </c>
       <c r="P21">
-        <v>12.22558450890033</v>
+        <v>10.66176044498986</v>
       </c>
       <c r="Q21">
-        <v>14.1855163223265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.22145927939168</v>
+      </c>
+      <c r="S21">
+        <v>13.59012561893516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.63362638107914</v>
+        <v>17.18385501954484</v>
       </c>
       <c r="C22">
-        <v>8.355370011255344</v>
+        <v>8.078064119086632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.31402945884902</v>
+        <v>13.3141065287966</v>
       </c>
       <c r="F22">
-        <v>29.6751955294678</v>
+        <v>28.74656958888409</v>
       </c>
       <c r="G22">
-        <v>21.89754046511881</v>
+        <v>23.50698884991253</v>
       </c>
       <c r="H22">
-        <v>1.709857399368385</v>
+        <v>1.723642087943857</v>
       </c>
       <c r="I22">
-        <v>2.607626667169376</v>
+        <v>2.640982860208092</v>
       </c>
       <c r="J22">
-        <v>8.726795545379186</v>
+        <v>8.063319756843503</v>
       </c>
       <c r="K22">
-        <v>14.74283186617791</v>
+        <v>13.98845716352464</v>
       </c>
       <c r="L22">
-        <v>6.130208326649438</v>
+        <v>11.27145718356809</v>
       </c>
       <c r="M22">
-        <v>13.4129109386242</v>
+        <v>9.589312202830026</v>
       </c>
       <c r="N22">
-        <v>10.69435921961863</v>
+        <v>6.191529136434762</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.27054481979963</v>
       </c>
       <c r="P22">
-        <v>12.13385325525723</v>
+        <v>10.92895578368458</v>
       </c>
       <c r="Q22">
-        <v>14.2124582528053</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.15401085960211</v>
+      </c>
+      <c r="S22">
+        <v>13.48087093838621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32021411833288</v>
+        <v>16.90620081202881</v>
       </c>
       <c r="C23">
-        <v>8.326069681173133</v>
+        <v>8.051211597753818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.1724855199643</v>
+        <v>13.1433128921164</v>
       </c>
       <c r="F23">
-        <v>29.3911060668195</v>
+        <v>28.55880437182798</v>
       </c>
       <c r="G23">
-        <v>21.80070340409139</v>
+        <v>22.59742203106962</v>
       </c>
       <c r="H23">
-        <v>1.635502086425769</v>
+        <v>1.65551594928171</v>
       </c>
       <c r="I23">
-        <v>2.554451308138912</v>
+        <v>2.594807742328325</v>
       </c>
       <c r="J23">
-        <v>8.740578885843057</v>
+        <v>8.265401434474352</v>
       </c>
       <c r="K23">
-        <v>14.76224833279406</v>
+        <v>14.06859465487131</v>
       </c>
       <c r="L23">
-        <v>6.088572434749138</v>
+        <v>11.36060322269142</v>
       </c>
       <c r="M23">
-        <v>13.201399535862</v>
+        <v>9.586949731194066</v>
       </c>
       <c r="N23">
-        <v>10.55749547692349</v>
+        <v>6.138015556899312</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.09379287024677</v>
       </c>
       <c r="P23">
-        <v>12.181622974541</v>
+        <v>10.77988410944604</v>
       </c>
       <c r="Q23">
-        <v>14.20937015698027</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.18636977559155</v>
+      </c>
+      <c r="S23">
+        <v>13.56785086922221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.0537682326859</v>
+        <v>15.75250684470897</v>
       </c>
       <c r="C24">
-        <v>8.218717839178954</v>
+        <v>7.936983688174026</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.61724124186022</v>
+        <v>12.52200302519383</v>
       </c>
       <c r="F24">
-        <v>28.27651092387356</v>
+        <v>27.7117988742216</v>
       </c>
       <c r="G24">
-        <v>21.40793347023875</v>
+        <v>20.27436197724174</v>
       </c>
       <c r="H24">
-        <v>1.780496740768179</v>
+        <v>1.738020285311834</v>
       </c>
       <c r="I24">
-        <v>2.632849099803584</v>
+        <v>2.577379387420675</v>
       </c>
       <c r="J24">
-        <v>8.790520321588659</v>
+        <v>8.941777318391845</v>
       </c>
       <c r="K24">
-        <v>14.82246901771848</v>
+        <v>14.29300523214479</v>
       </c>
       <c r="L24">
-        <v>5.929998845241305</v>
+        <v>11.65671097737115</v>
       </c>
       <c r="M24">
-        <v>12.36642077399444</v>
+        <v>9.523291675313386</v>
       </c>
       <c r="N24">
-        <v>10.03327325752988</v>
+        <v>5.944701798704146</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.35101131873245</v>
       </c>
       <c r="P24">
-        <v>12.3674632943032</v>
+        <v>10.22064163395949</v>
       </c>
       <c r="Q24">
-        <v>14.19045428364166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.32855640935829</v>
+      </c>
+      <c r="S24">
+        <v>13.78483989386921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.61284033610843</v>
+        <v>14.33145959626746</v>
       </c>
       <c r="C25">
-        <v>8.100083136280785</v>
+        <v>7.762689304241432</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.99137515166535</v>
+        <v>11.90981566069446</v>
       </c>
       <c r="F25">
-        <v>27.06009822084644</v>
+        <v>26.59074394242716</v>
       </c>
       <c r="G25">
-        <v>21.02831708940387</v>
+        <v>19.85884045734063</v>
       </c>
       <c r="H25">
-        <v>2.115973995139024</v>
+        <v>2.056614600486432</v>
       </c>
       <c r="I25">
-        <v>2.858303002231576</v>
+        <v>2.779055949080574</v>
       </c>
       <c r="J25">
-        <v>8.8552194513549</v>
+        <v>9.043678162581283</v>
       </c>
       <c r="K25">
-        <v>14.9052662481514</v>
+        <v>14.42806718895775</v>
       </c>
       <c r="L25">
-        <v>5.751524797632353</v>
+        <v>11.90850675825091</v>
       </c>
       <c r="M25">
-        <v>11.39486258533894</v>
+        <v>9.410860800894612</v>
       </c>
       <c r="N25">
-        <v>9.439870757292832</v>
+        <v>5.747288818448224</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.39407791721846</v>
       </c>
       <c r="P25">
-        <v>12.57458726338178</v>
+        <v>9.611427451546701</v>
       </c>
       <c r="Q25">
-        <v>14.19460032593338</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.50841068222546</v>
+      </c>
+      <c r="S25">
+        <v>13.84710966359399</v>
       </c>
     </row>
   </sheetData>
